--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.459</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.027</v>
+        <v>27.547</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.85</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.134</v>
+        <v>30.688</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.822</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.24</v>
+        <v>27.077</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.14810776293735</v>
+        <v>26.70719685593591</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.91705403682126</v>
+        <v>26.70719688427765</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.43619730394179</v>
+        <v>26.70719689518838</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-5.411022268166903</v>
+        <v>26.70719685257867</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.16241496545295</v>
+        <v>26.70719688631466</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.1231692159369</v>
+        <v>26.70719689780833</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2.526865501699469</v>
+        <v>26.70719685943627</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.13257461660793</v>
+        <v>26.7071968955926</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.86196574689949</v>
+        <v>26.70719690571928</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.96584084154185</v>
+        <v>26.70719690634922</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.02898783931133</v>
+        <v>26.70719691891586</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.28055025957168</v>
+        <v>26.70719692363365</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.31825982314091</v>
+        <v>26.70719688087093</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.19072037874116</v>
+        <v>26.70719691232409</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.70694216853458</v>
+        <v>26.70719692243641</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.514887000509429</v>
+        <v>26.70719689998291</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.7695438476695</v>
+        <v>26.70719693335352</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.8628669640588</v>
+        <v>26.70719694524018</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2208557267779163</v>
+        <v>26.70719689388099</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.27254105997203</v>
+        <v>26.70719693151338</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36.57479978388373</v>
+        <v>26.70719694482396</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.073474348995056</v>
+        <v>26.70719690462669</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.74744945190739</v>
+        <v>26.70719694553198</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>51.34291741645013</v>
+        <v>26.70719695720393</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38.631578618195</v>
+        <v>26.70719695356047</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.21985624329547</v>
+        <v>26.70719696965964</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>59.84031687619161</v>
+        <v>26.70719697533027</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.33466115554808</v>
+        <v>26.70719692191718</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>52.00399334787102</v>
+        <v>26.70719696188187</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>59.67904220198957</v>
+        <v>26.70719697251415</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.84223766964937</v>
+        <v>26.70719693481793</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.47191297026249</v>
+        <v>26.7071969689049</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.19305065498841</v>
+        <v>26.70719698158548</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.04985549334026</v>
+        <v>26.70719692831059</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.9643103536734</v>
+        <v>26.70719696700499</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.45162457183581</v>
+        <v>26.70719698092811</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.94265784663412</v>
+        <v>26.70719694099586</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>56.59505754284949</v>
+        <v>26.70719698279197</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>74.62317807644749</v>
+        <v>26.7071969952139</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>65.39067630132732</v>
+        <v>26.70719698901662</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>80.09521401059479</v>
+        <v>26.70719700490969</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>91.35394479690635</v>
+        <v>26.70719700968309</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.17703365460609</v>
+        <v>26.70719695587138</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>70.61032275722052</v>
+        <v>26.70719699515525</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>84.46327749709853</v>
+        <v>26.70719700677894</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.207883376928088</v>
+        <v>26.70719686223784</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.82543205651131</v>
+        <v>26.70719689082577</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.66820209354816</v>
+        <v>26.70719690121139</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.667099234316382</v>
+        <v>26.70719685908429</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>39.4609108386806</v>
+        <v>26.70719689335411</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>45.5512742445212</v>
+        <v>26.70719690410306</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.361723313942569</v>
+        <v>26.70719686623858</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>56.8604552759585</v>
+        <v>26.70719690252817</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>63.13568734291751</v>
+        <v>26.70719691206728</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.50703194624127</v>
+        <v>26.70719691170036</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>61.31886443980237</v>
+        <v>26.70719692385039</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>63.71009584504479</v>
+        <v>26.70719692804236</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.35256144648145</v>
+        <v>26.70719688514158</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>50.0486720614249</v>
+        <v>26.7071969172768</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>62.83326280586214</v>
+        <v>26.70719692708867</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.002439665912402</v>
+        <v>26.70719690059981</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.09883660332058</v>
+        <v>26.70719693399646</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.71449078020847</v>
+        <v>26.70719694524428</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-3.499891031885156</v>
+        <v>26.70719689484668</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.26091611159369</v>
+        <v>26.70719693286902</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.68890091345256</v>
+        <v>26.70719694528746</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.053861458788838</v>
+        <v>26.70719690586177</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>48.96022598777046</v>
+        <v>26.7071969467353</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>60.60101916488848</v>
+        <v>26.70719695769733</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.35034234102855</v>
+        <v>26.70719695369013</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>63.35357573849881</v>
+        <v>26.70719696913338</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>67.26517250682426</v>
+        <v>26.7071969742441</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>13.68452422103916</v>
+        <v>26.70719692160488</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>60.09668479587479</v>
+        <v>26.7071969615908</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>66.50642926610453</v>
+        <v>26.7071969720683</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.79896876984032</v>
+        <v>26.70719693547445</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.12771729486654</v>
+        <v>26.70719696959489</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.91605881016179</v>
+        <v>26.70719698158302</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5.186778224493622</v>
+        <v>26.70719692938975</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.43076744419466</v>
+        <v>26.70719696843748</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>55.66071702379742</v>
+        <v>26.70719698144981</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>14.69953194142859</v>
+        <v>26.70719694247874</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>67.41798570120885</v>
+        <v>26.70719698425899</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>83.82408602589933</v>
+        <v>26.70719699588117</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>73.17942577356774</v>
+        <v>26.70719698957354</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>90.47065328878293</v>
+        <v>26.70719700466544</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>97.96493740094493</v>
+        <v>26.70719700899983</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.52443227962933</v>
+        <v>26.70719695579581</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>80.15404468164715</v>
+        <v>26.70719699534138</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>90.58164306295348</v>
+        <v>26.70719700661427</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.33820351250413</v>
+        <v>26.7071968609938</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.9878787607869</v>
+        <v>26.70719688939936</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.21511916077171</v>
+        <v>26.70719689963675</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.18271554827243</v>
+        <v>26.70719685729899</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.8762585648129</v>
+        <v>26.70719689138619</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.24276953860655</v>
+        <v>26.70719690205317</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.4612807051572</v>
+        <v>26.70719686451685</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>53.03480049742996</v>
+        <v>26.70719690066755</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57.58121159079055</v>
+        <v>26.7071969101263</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>47.81439309712076</v>
+        <v>26.70719691008867</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>57.15378988963057</v>
+        <v>26.70719692211298</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>57.45903410205277</v>
+        <v>26.70719692631661</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.00973420180389</v>
+        <v>26.70719688373092</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>47.38099942150927</v>
+        <v>26.70719691567331</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>57.18350967008412</v>
+        <v>26.70719692539128</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12.27566325226101</v>
+        <v>26.707196901291</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.39770364257034</v>
+        <v>26.70719693464458</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.04147969894376</v>
+        <v>26.70719694573546</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.544311804761712</v>
+        <v>26.70719689515396</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.8575335695098</v>
+        <v>26.70719693319115</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>41.90081422831642</v>
+        <v>26.70719694549144</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.171828386069709</v>
+        <v>26.70719690635633</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>55.05579351250573</v>
+        <v>26.70719694725708</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>63.41029066294792</v>
+        <v>26.70719695813595</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.34078963471428</v>
+        <v>26.70719695426747</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>66.70403586030557</v>
+        <v>26.70719696962448</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>68.69055728302033</v>
+        <v>26.70719697472376</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.63364036198512</v>
+        <v>26.70719692216883</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>65.3523285474478</v>
+        <v>26.70719696206321</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>69.42170243427904</v>
+        <v>26.70719697249736</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.13059067023467</v>
+        <v>26.70719693644368</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>46.00170311997539</v>
+        <v>26.70719697050319</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53.35755291967817</v>
+        <v>26.70719698233235</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.92827349713688</v>
+        <v>26.70719692992191</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>49.75574341964274</v>
+        <v>26.70719696899507</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>55.58957297449464</v>
+        <v>26.70719698185081</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>19.92624213892763</v>
+        <v>26.70719694319865</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>70.97639033158406</v>
+        <v>26.70719698499922</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>83.46101009133707</v>
+        <v>26.70719699650879</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.37889840140613</v>
+        <v>26.70719699036162</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>91.61369361114771</v>
+        <v>26.7071970053637</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>97.12966797399204</v>
+        <v>26.70719700967785</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.11057423973598</v>
+        <v>26.70719695660863</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>83.55578085379602</v>
+        <v>26.70719699602974</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>91.60197433746582</v>
+        <v>26.70719700721457</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>5.48178867680404</v>
+        <v>26.70719685485599</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>11.24260553511487</v>
+        <v>26.70719688255784</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>15.59388969569085</v>
+        <v>26.70719689315043</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-2.671068771839522</v>
+        <v>26.70719685152931</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.88731044989257</v>
+        <v>26.70719688453435</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.45762680110909</v>
+        <v>26.70719689572637</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.4070029267930089</v>
+        <v>26.70719685806258</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.5618212967883</v>
+        <v>26.70719689341396</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.98504475793671</v>
+        <v>26.70719690324595</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.91600587784272</v>
+        <v>26.70719690431755</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.62051177372465</v>
+        <v>26.70719691653462</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.98368127950969</v>
+        <v>26.70719692121811</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>16.83541412723969</v>
+        <v>26.70719687994965</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.97806406995631</v>
+        <v>26.70719691057873</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>40.08131996233845</v>
+        <v>26.70719692043007</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>7.65694648266734</v>
+        <v>26.70719689743108</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.61909429939007</v>
+        <v>26.7071969300191</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.75643601837071</v>
+        <v>26.70719694157386</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.235066318306103</v>
+        <v>26.70719689135054</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.24314979295695</v>
+        <v>26.70719692818691</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.9837709448094</v>
+        <v>26.70719694112315</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.7188513993584031</v>
+        <v>26.70719690162604</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.94075836787925</v>
+        <v>26.70719694158397</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46.00569782127341</v>
+        <v>26.70719695294226</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.26206099896628</v>
+        <v>26.70719694974894</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>48.09040947475761</v>
+        <v>26.70719696532672</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>54.56753426502445</v>
+        <v>26.70719697103802</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15.52680675618593</v>
+        <v>26.70719691918742</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>48.39301895367871</v>
+        <v>26.70719695815618</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>56.23928894620164</v>
+        <v>26.70719696850793</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.05577933030812</v>
+        <v>26.70719693262584</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.29623718333175</v>
+        <v>26.70719696589073</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.98353825789679</v>
+        <v>26.70719697823882</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>11.48740231354043</v>
+        <v>26.70719692607925</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.60291229478307</v>
+        <v>26.70719696394113</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.43285564025499</v>
+        <v>26.70719697750649</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.88882209947205</v>
+        <v>26.70719693837604</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>53.32990552831984</v>
+        <v>26.70719697923816</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.82865505038302</v>
+        <v>26.70719699134392</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.68000743633519</v>
+        <v>26.70719698557343</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>75.43179215514415</v>
+        <v>26.70719700103184</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.32520831982097</v>
+        <v>26.70719700578813</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>33.43771430209429</v>
+        <v>26.70719695355909</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>68.16454437807118</v>
+        <v>26.70719699186872</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>82.23081590780313</v>
+        <v>26.70719700321008</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.58099996714204</v>
+        <v>26.70719686209715</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.28890434229596</v>
+        <v>26.7071968902962</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.44102058125226</v>
+        <v>26.7071969008829</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.938899590543194</v>
+        <v>26.707196858764</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.69807984106458</v>
+        <v>26.70719689250231</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>38.54694314100227</v>
+        <v>26.70719690358609</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.40730042904973</v>
+        <v>26.70719686579607</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>49.40821288452183</v>
+        <v>26.7071969018114</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>55.46260216665293</v>
+        <v>26.70719691159217</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.86275368664688</v>
+        <v>26.70719691156561</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>50.38781471890614</v>
+        <v>26.70719692388765</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>52.74774755916708</v>
+        <v>26.70719692841477</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.03063910825673</v>
+        <v>26.70719688620064</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.41737202430028</v>
+        <v>26.70719691707673</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>49.77777052986922</v>
+        <v>26.70719692700577</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.03828681081822</v>
+        <v>26.70719690611945</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>41.02585216169292</v>
+        <v>26.70719693916411</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>44.11808481583139</v>
+        <v>26.70719695060602</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.40602110139641</v>
+        <v>26.70719690018389</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>40.56042242781086</v>
+        <v>26.70719693772505</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>49.08196746940456</v>
+        <v>26.70719695048964</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>14.38898912538351</v>
+        <v>26.70719691106679</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>56.38940655077702</v>
+        <v>26.70719695167316</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>66.56884468496148</v>
+        <v>26.70719696288204</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>53.77526213972686</v>
+        <v>26.70719695886308</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>69.57475677582973</v>
+        <v>26.70719697464024</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>74.12735140726284</v>
+        <v>26.70719698014171</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.25517811652993</v>
+        <v>26.70719692761058</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>65.98753861620776</v>
+        <v>26.70719696688969</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>27.3213846924441</v>
+        <v>26.70719693974356</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.47478970624104</v>
+        <v>26.70719697345147</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>57.75547400168223</v>
+        <v>26.70719698574879</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>15.91090098284799</v>
+        <v>26.70719693331862</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>50.87579672095499</v>
+        <v>26.70719697180741</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>60.18152080609697</v>
+        <v>26.70719698528726</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.62031794831532</v>
+        <v>26.70719694609653</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>68.81130749271961</v>
+        <v>26.70719698753248</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>84.48434840095356</v>
+        <v>26.70719699957787</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>74.88817053582417</v>
+        <v>26.70719699301793</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>90.78611317256743</v>
+        <v>26.7071970086419</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>99.95159621761691</v>
+        <v>26.70719701327538</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>40.13673139512663</v>
+        <v>26.7071969602981</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>79.27678802814194</v>
+        <v>26.70719699892144</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>92.1214904245528</v>
+        <v>26.70719701031038</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8.752291443331337</v>
+        <v>26.70719687125593</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.88331729090645</v>
+        <v>26.70719689674576</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>32.8390601143225</v>
+        <v>26.7071969058653</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3.419143868316041</v>
+        <v>26.70719686855127</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>39.53022160559433</v>
+        <v>26.7071968993152</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>43.95062861402681</v>
+        <v>26.70719690872822</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>9.206743621040189</v>
+        <v>26.70719687500861</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>55.24672916358884</v>
+        <v>26.70719690752077</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>59.37404265283874</v>
+        <v>26.70719691589061</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.63294370728557</v>
+        <v>26.70719691519718</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.65032644158033</v>
+        <v>26.70719692599109</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>55.8121143261054</v>
+        <v>26.70719692960589</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>17.44346092626052</v>
+        <v>26.70719689142535</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.26623092781907</v>
+        <v>26.70719691939172</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>48.11256392370801</v>
+        <v>26.70719692807257</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16.61907068432604</v>
+        <v>26.70719691039088</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.33706816753617</v>
+        <v>26.70719694038185</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>45.78688138439178</v>
+        <v>26.70719695012971</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>6.884344236166921</v>
+        <v>26.70719690532203</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>43.45886122572016</v>
+        <v>26.7071969396703</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>49.94421351021796</v>
+        <v>26.70719695046719</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>13.32791078404954</v>
+        <v>26.70719691549609</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>64.18445741872105</v>
+        <v>26.70719695230903</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>69.88302582975876</v>
+        <v>26.70719696182967</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>56.49948523728013</v>
+        <v>26.70719695788084</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>72.93127956667766</v>
+        <v>26.70719697160467</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>76.55783248932507</v>
+        <v>26.70719697605323</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.18353244694229</v>
+        <v>26.70719692891266</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>67.26130712075248</v>
+        <v>26.70719696448207</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>72.11733660103403</v>
+        <v>26.7071969735402</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.93438860983137</v>
+        <v>26.70719693967474</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>50.56914817303235</v>
+        <v>26.70719697020212</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>57.41384536371503</v>
+        <v>26.7071969806628</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>10.9839028086238</v>
+        <v>26.70719693429922</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>51.95240488116281</v>
+        <v>26.7071969694337</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>58.40577451352105</v>
+        <v>26.7071969808255</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>19.71471963855347</v>
+        <v>26.70719694618169</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>73.1989608041859</v>
+        <v>26.70719698368776</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>83.9935236101725</v>
+        <v>26.70719699386773</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>75.00225905470239</v>
+        <v>26.70719698787313</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>91.2550378579048</v>
+        <v>26.70719700135929</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>96.12519757056393</v>
+        <v>26.70719700513775</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.81113249846888</v>
+        <v>26.70719695757137</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>78.86783587845215</v>
+        <v>26.70719699261679</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>87.54138899127713</v>
+        <v>26.70719700251473</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-0.4762104696643377</v>
+        <v>26.70719685763698</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.137630309412828</v>
+        <v>26.70719688270054</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.59385509309498</v>
+        <v>26.70719689213318</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-6.890242257109961</v>
+        <v>26.70719685478026</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>11.84204607128032</v>
+        <v>26.70719688474395</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.12282710843281</v>
+        <v>26.70719689462029</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-5.218695985023636</v>
+        <v>26.70719686070974</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>21.35670486679888</v>
+        <v>26.70719689263194</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.67917284018735</v>
+        <v>26.7071969014769</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.40547951441449</v>
+        <v>26.70719690265016</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.99300887393485</v>
+        <v>26.70719691377629</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.78470700031011</v>
+        <v>26.70719691768601</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>6.858105092522031</v>
+        <v>26.70719687957252</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>19.57280251795272</v>
+        <v>26.70719690776071</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.66671501362082</v>
+        <v>26.70719691649254</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>5.40998276946361</v>
+        <v>26.70719689695293</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>24.3606325111347</v>
+        <v>26.70719692669183</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.98840800694516</v>
+        <v>26.70719693700524</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-0.6328499141359103</v>
+        <v>26.7071968918699</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.27989363544418</v>
+        <v>26.70719692562407</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>32.49387991008096</v>
+        <v>26.70719693707059</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.8289337222185438</v>
+        <v>26.70719690147915</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>36.34592861844009</v>
+        <v>26.7071969379064</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>46.55847271640548</v>
+        <v>26.70719694807623</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.6561838250351</v>
+        <v>26.70719694538714</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.44858440594775</v>
+        <v>26.70719695955724</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>54.16072713313415</v>
+        <v>26.7071969642745</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>12.29642612223964</v>
+        <v>26.70719691687227</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>46.23363052838715</v>
+        <v>26.70719695265711</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>52.51036468532682</v>
+        <v>26.70719696198998</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>16.66886448977457</v>
+        <v>26.70719692893534</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>34.66239935148774</v>
+        <v>26.7071969593129</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>44.85837172673272</v>
+        <v>26.70719697026188</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.719101396401911</v>
+        <v>26.7071969235801</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>40.40721598934127</v>
+        <v>26.70719695834093</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>48.84734923055826</v>
+        <v>26.70719697019853</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>15.11902505706758</v>
+        <v>26.70719693500898</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>54.78066649006841</v>
+        <v>26.70719697227378</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>68.14863382366244</v>
+        <v>26.70719698295296</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>63.29317102606608</v>
+        <v>26.70719697814191</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>77.5362010302234</v>
+        <v>26.70719699199107</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>82.17946258151674</v>
+        <v>26.70719699598435</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.75626883525956</v>
+        <v>26.70719694828935</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>66.88860933247327</v>
+        <v>26.70719698348149</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>77.0684889088576</v>
+        <v>26.70719699351323</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-4.062026554893883</v>
+        <v>26.70719685216759</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1.673762617307464</v>
+        <v>26.70719687987947</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>6.663413262385728</v>
+        <v>26.70719689047123</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-7.930215583652412</v>
+        <v>26.70719684867848</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>10.78037858208811</v>
+        <v>26.70719688180215</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.25988975095744</v>
+        <v>26.70719689292087</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-7.291139204705679</v>
+        <v>26.70719685498399</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.48378865765296</v>
+        <v>26.70719689034863</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.04191824782077</v>
+        <v>26.707196900174</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.20578258434666</v>
+        <v>26.70719690110422</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.31599049289234</v>
+        <v>26.70719691340681</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>27.54003672898944</v>
+        <v>26.7071969179799</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2.650915191184616</v>
+        <v>26.70719687622885</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>12.48605831736607</v>
+        <v>26.70719690694485</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>24.03670671963058</v>
+        <v>26.70719691681934</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-8.531865077987192</v>
+        <v>26.70719689398254</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5.29745841747253</v>
+        <v>26.70719692651166</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.61823674871058</v>
+        <v>26.70719693802231</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-11.67216361323903</v>
+        <v>26.70719688787732</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>6.94111906549805</v>
+        <v>26.70719692476521</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>16.54891981147345</v>
+        <v>26.70719693756749</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-13.7965943747646</v>
+        <v>26.70719689796534</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16.70504558125174</v>
+        <v>26.70719693789166</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.52065117092794</v>
+        <v>26.70719694920718</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>18.05760444721455</v>
+        <v>26.70719694610872</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.29774702522041</v>
+        <v>26.70719696189829</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.89193206554965</v>
+        <v>26.7071969675149</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-1.44952820860771</v>
+        <v>26.7071969154221</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.13897014704686</v>
+        <v>26.70719695437726</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.61370906782859</v>
+        <v>26.70719696471568</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>3.092319742112764</v>
+        <v>26.70719692891433</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.83285768640994</v>
+        <v>26.70719696213884</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.53211113731353</v>
+        <v>26.70719697456767</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-1.783261485855313</v>
+        <v>26.70719692248264</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>23.00451443535087</v>
+        <v>26.70719696037176</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.68890193170843</v>
+        <v>26.70719697397329</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-0.2954719309111198</v>
+        <v>26.70719693458197</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>35.18554612217287</v>
+        <v>26.70719697539343</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>53.93024115730658</v>
+        <v>26.70719698759249</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>43.96713675173064</v>
+        <v>26.70719698180329</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>60.30615481500147</v>
+        <v>26.70719699751792</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>72.44922145293083</v>
+        <v>26.70719700226709</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>13.09466354332773</v>
+        <v>26.7071969495878</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>46.88020906723953</v>
+        <v>26.7071969879812</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>60.66112068379375</v>
+        <v>26.70719699944564</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>9.427251997705568</v>
+        <v>26.7071968745964</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.74358113224211</v>
+        <v>26.70719690147984</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>34.85586243473765</v>
+        <v>26.70719691144004</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>5.691945516552572</v>
+        <v>26.70719687263337</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>44.07939458197197</v>
+        <v>26.70719690520782</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>47.61620652850898</v>
+        <v>26.70719691537945</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.41232894465421</v>
+        <v>26.70719687985617</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>60.492904677999</v>
+        <v>26.70719691422387</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>66.0666347849604</v>
+        <v>26.70719692332156</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>57.15338052177188</v>
+        <v>26.70719692246514</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>65.84527280604053</v>
+        <v>26.70719693395786</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>66.2080617009414</v>
+        <v>26.70719693786841</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.15463688263423</v>
+        <v>26.70719689748965</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>53.25652198935046</v>
+        <v>26.70719692738369</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>67.45653195422811</v>
+        <v>26.70719693673027</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1.644366255121586</v>
+        <v>26.70719691077467</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.27892248726435</v>
+        <v>26.70719694230282</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.01348188754425</v>
+        <v>26.70719695292869</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-4.040929901984505</v>
+        <v>26.70719690612928</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>31.72057904701215</v>
+        <v>26.70719694225316</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.80182732564529</v>
+        <v>26.70719695389393</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.1296492681865438</v>
+        <v>26.70719691698653</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>49.37743123376737</v>
+        <v>26.70719695572513</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>57.09341929784932</v>
+        <v>26.70719696603516</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>44.74474255066821</v>
+        <v>26.70719696185474</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>60.80593807564308</v>
+        <v>26.70719697655258</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>62.75282364806053</v>
+        <v>26.70719698127419</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.96817021801864</v>
+        <v>26.70719693157772</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>58.40553874204593</v>
+        <v>26.70719696914931</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>62.65876877920094</v>
+        <v>26.70719697889932</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>12.30154984802583</v>
+        <v>26.7071969421388</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.79101180424462</v>
+        <v>26.70719697426187</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>47.20514624578511</v>
+        <v>26.70719698565254</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>5.637198085381495</v>
+        <v>26.70719693722887</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.56496025340248</v>
+        <v>26.70719697426204</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.06162432648492</v>
+        <v>26.70719698648734</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>13.8713084642125</v>
+        <v>26.7071969498738</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>66.71256517452989</v>
+        <v>26.70719698936765</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>79.55613457775904</v>
+        <v>26.70719700036116</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>72.26428705272113</v>
+        <v>26.70719699402509</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>86.84495036885195</v>
+        <v>26.70719700836872</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>91.56952923267491</v>
+        <v>26.70719701239229</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.39426871445436</v>
+        <v>26.70719696228266</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>78.38935161365622</v>
+        <v>26.70719699932113</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>86.77019629925491</v>
+        <v>26.70719700990292</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-3.292597660961647</v>
+        <v>26.70719685027613</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>3.091501522462302</v>
+        <v>26.707196875315</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.644394403303739</v>
+        <v>26.70719688466649</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-7.698299652011713</v>
+        <v>26.70719684645506</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>6.113498186366932</v>
+        <v>26.70719687617661</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.1658621253227</v>
+        <v>26.70719688597369</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-7.88332269206645</v>
+        <v>26.70719685193627</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>15.18978247946795</v>
+        <v>26.70719688363682</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.11239655566296</v>
+        <v>26.70719689243173</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>15.19069085285752</v>
+        <v>26.70719689386498</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>20.69448425247182</v>
+        <v>26.70719690468493</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.88509630190024</v>
+        <v>26.70719690866553</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-1.176283141508161</v>
+        <v>26.70719687083723</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>12.38601705019786</v>
+        <v>26.70719689910349</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.16392052958019</v>
+        <v>26.70719690786296</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.3269999968633783</v>
+        <v>26.70719688796353</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>17.05224840470975</v>
+        <v>26.70719691754142</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.64339984232507</v>
+        <v>26.70719692784385</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-4.448328186243678</v>
+        <v>26.70719688206695</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.91273156628164</v>
+        <v>26.70719691547362</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.9843613086878</v>
+        <v>26.70719692687602</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-4.903939753780392</v>
+        <v>26.70719689118355</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>24.56220479722603</v>
+        <v>26.70719692726769</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>37.57263870328262</v>
+        <v>26.70719693748903</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.54434889743326</v>
+        <v>26.70719693506354</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>38.6507436759166</v>
+        <v>26.70719694889936</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>43.21089887928958</v>
+        <v>26.70719695380505</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>2.246345491078962</v>
+        <v>26.7071969067895</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>33.54385561587232</v>
+        <v>26.70719694229068</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>41.2653603090163</v>
+        <v>26.70719695184654</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.53917309909975</v>
+        <v>26.70719692085116</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.01411493533631</v>
+        <v>26.70719695115827</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>39.33188516121942</v>
+        <v>26.70719696213267</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>4.940184921727237</v>
+        <v>26.70719691470583</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.63037932144226</v>
+        <v>26.70719694914091</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>41.03193895578575</v>
+        <v>26.70719696109913</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>9.490395869463185</v>
+        <v>26.70719692570268</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.88019489366943</v>
+        <v>26.7071969626898</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>60.47511730178065</v>
+        <v>26.70719697346231</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>49.74041214093683</v>
+        <v>26.70719696886399</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>63.26214246860065</v>
+        <v>26.70719698244909</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>73.04714324565711</v>
+        <v>26.70719698662247</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>18.82591659773355</v>
+        <v>26.7071969390971</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>53.3051057939203</v>
+        <v>26.70719697419</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>66.78662922451105</v>
+        <v>26.70719698443799</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-8.701275954847397</v>
+        <v>26.70719685582158</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.062947931589228</v>
+        <v>26.7071968826099</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>5.670461725997832</v>
+        <v>26.70719689220157</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-14.75207798963239</v>
+        <v>26.70719685172089</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.320590218860616</v>
+        <v>26.70719688378668</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.25839549737854</v>
+        <v>26.70719689384608</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-12.31458764615056</v>
+        <v>26.70719685800785</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.04283982877416</v>
+        <v>26.70719689205964</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.24851093456812</v>
+        <v>26.70719690095263</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.35871279105763</v>
+        <v>26.70719690146958</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.62915509701189</v>
+        <v>26.70719691281398</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>23.95318591133547</v>
+        <v>26.70719691684026</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-3.344968347769282</v>
+        <v>26.70719687678847</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>14.40057507908067</v>
+        <v>26.70719690679493</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>21.55683940777891</v>
+        <v>26.70719691599746</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>9.437136628163703</v>
+        <v>26.70719689787985</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.61304100950726</v>
+        <v>26.70719692943414</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.37484539856213</v>
+        <v>26.70719693988518</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>3.486753695693501</v>
+        <v>26.70719689169868</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.74621892091378</v>
+        <v>26.70719692766826</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.90311488296278</v>
+        <v>26.7071969393558</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>6.920094284612002</v>
+        <v>26.70719690203382</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>47.61455140487255</v>
+        <v>26.70719694074022</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>54.76664994588987</v>
+        <v>26.70719695103674</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>43.25109098882502</v>
+        <v>26.70719694771856</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>56.90062836957314</v>
+        <v>26.70719696221991</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>58.68733479717653</v>
+        <v>26.70719696710951</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>19.23557669333802</v>
+        <v>26.70719691737448</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>55.67717996301033</v>
+        <v>26.70719695512584</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>58.96322301088141</v>
+        <v>26.70719696502217</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.16807898075307</v>
+        <v>26.70719693180341</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.3570453039197</v>
+        <v>26.70719696409495</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>48.07728154821412</v>
+        <v>26.7071969752314</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.02989988835335</v>
+        <v>26.70719692513094</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>44.42234734400698</v>
+        <v>26.70719696213117</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>50.52397880111975</v>
+        <v>26.70719697431945</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>17.26059341294675</v>
+        <v>26.70719693749834</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>63.03308879575052</v>
+        <v>26.70719697711807</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>74.5067313581828</v>
+        <v>26.70719698800954</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>66.77719885703348</v>
+        <v>26.70719698241591</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>81.38571678556659</v>
+        <v>26.70719699665345</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>87.11271009252469</v>
+        <v>26.70719700078327</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.92822852273971</v>
+        <v>26.70719695046791</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>73.03750943974607</v>
+        <v>26.70719698783194</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>80.5931261123277</v>
+        <v>26.70719699844018</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.1646226330519625</v>
+        <v>26.70719684814272</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>6.806883063396967</v>
+        <v>26.70719687441441</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>9.787781700149186</v>
+        <v>26.70719688413816</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-5.432227362493798</v>
+        <v>26.70719684414675</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>11.6847299840275</v>
+        <v>26.70719687552498</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>14.38894195527304</v>
+        <v>26.70719688570044</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-5.135040265500429</v>
+        <v>26.70719685003603</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>20.88495752819069</v>
+        <v>26.70719688348376</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.35498513708955</v>
+        <v>26.70719689253299</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.99461877973145</v>
+        <v>26.70719689389972</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.37972427170113</v>
+        <v>26.70719690526145</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.17601685348215</v>
+        <v>26.70719690940297</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>4.735345516664935</v>
+        <v>26.70719687005539</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>18.08016662528497</v>
+        <v>26.70719689965115</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.10992943908293</v>
+        <v>26.70719690884452</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-4.525009891429249</v>
+        <v>26.70719688542116</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>8.195872405925329</v>
+        <v>26.70719691626415</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>12.87868041148059</v>
+        <v>26.70719692698711</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-8.061261063069168</v>
+        <v>26.70719687899683</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>6.990465881894011</v>
+        <v>26.70719691404501</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>15.68938747632568</v>
+        <v>26.70719692589489</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-9.171963852831944</v>
+        <v>26.70719688856119</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>17.99733082927731</v>
+        <v>26.70719692638368</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.95258217136637</v>
+        <v>26.70719693696426</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>17.52146787479412</v>
+        <v>26.70719693457242</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.02031462138543</v>
+        <v>26.70719694903968</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.26651154772379</v>
+        <v>26.70719695406916</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-0.6965362366238708</v>
+        <v>26.70719690537063</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.42644945290695</v>
+        <v>26.70719694242279</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.48172079814383</v>
+        <v>26.70719695245658</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>13.01590367524813</v>
+        <v>26.70719692226751</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.40862201684816</v>
+        <v>26.70719695398031</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.29508404424068</v>
+        <v>26.70719696528073</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.484045540114202</v>
+        <v>26.70719691555106</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.37874560059847</v>
+        <v>26.70719695179282</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.19686552789618</v>
+        <v>26.70719696406206</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.580231559638186</v>
+        <v>26.70719692740832</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>44.00333197444758</v>
+        <v>26.70719696635511</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.37015363065593</v>
+        <v>26.70719697737923</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>48.97921932838956</v>
+        <v>26.70719697272609</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>60.68861443674949</v>
+        <v>26.70719698685438</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>69.45304195687521</v>
+        <v>26.70719699106712</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>19.46958803515228</v>
+        <v>26.70719694172753</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>53.77015728816012</v>
+        <v>26.70719697849779</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>60.30200288846843</v>
+        <v>26.70719698913598</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-7.178379461894394</v>
+        <v>26.70719684438317</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-4.554175100757718</v>
+        <v>26.70719686921308</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-4.009643564390046</v>
+        <v>26.7071968783224</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-10.32346338338537</v>
+        <v>26.70719683986016</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.5417382178387342</v>
+        <v>26.70719686949476</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>1.767136659409427</v>
+        <v>26.70719687908085</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-12.81472899147288</v>
+        <v>26.70719684490653</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.037006684893928</v>
+        <v>26.7071968764883</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>6.136378318759135</v>
+        <v>26.70719688496554</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>4.620735959026458</v>
+        <v>26.70719688686989</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.248583507376438</v>
+        <v>26.70719689753682</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>8.24834309848347</v>
+        <v>26.70719690142877</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-4.066863291241916</v>
+        <v>26.7071968645894</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.051892778389103</v>
+        <v>26.70719689249143</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.401782454698203</v>
+        <v>26.7071969011735</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-9.378946069826995</v>
+        <v>26.70719688055645</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1.327599170286369</v>
+        <v>26.70719690974541</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-0.4865787153435548</v>
+        <v>26.70719691976217</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-11.70042121456097</v>
+        <v>26.70719687379743</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.655211103133894</v>
+        <v>26.70719690696632</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>3.742542389156316</v>
+        <v>26.70719691811977</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-14.58114393955082</v>
+        <v>26.70719688238668</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>6.424111302660297</v>
+        <v>26.7071969181767</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>11.85323347760454</v>
+        <v>26.70719692805663</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.114073477174536</v>
+        <v>26.70719692638749</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.35432915427443</v>
+        <v>26.70719693996037</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>16.54178278594081</v>
+        <v>26.70719694471702</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-5.897792623571334</v>
+        <v>26.70719689892869</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>14.48565549814731</v>
+        <v>26.70719693392108</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>16.88005446375178</v>
+        <v>26.70719694335752</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.71718080250747</v>
+        <v>26.70719691660526</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.49439995027046</v>
+        <v>26.70719694658756</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.57709505373711</v>
+        <v>26.70719695722947</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>2.699488395156763</v>
+        <v>26.70719690945402</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>22.11902382653284</v>
+        <v>26.70719694372351</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.352344957371</v>
+        <v>26.70719695538352</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>6.7681928599592</v>
+        <v>26.70719692031825</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.50334543932798</v>
+        <v>26.70719695715553</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.44019953073943</v>
+        <v>26.70719696755903</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.93111831724559</v>
+        <v>26.70719696357846</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>46.7227814523488</v>
+        <v>26.70719697690783</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>53.08321813134019</v>
+        <v>26.70719698091044</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.56035032118665</v>
+        <v>26.7071969344231</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>40.66429069512474</v>
+        <v>26.70719696911688</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>47.20671713070971</v>
+        <v>26.70719697927692</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.25673303207958</v>
+        <v>26.70719685594367</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.65231734401384</v>
+        <v>26.70719688403391</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.9989416072721</v>
+        <v>26.7071968948272</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>0.5747430979023065</v>
+        <v>26.70719685227614</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.07700805085876</v>
+        <v>26.70719688574623</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.50726856127073</v>
+        <v>26.70719689704039</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>5.398825349727343</v>
+        <v>26.70719685925576</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>35.81205830716861</v>
+        <v>26.70719689513288</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.00472741413643</v>
+        <v>26.7071969051587</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.44858311497943</v>
+        <v>26.70719690593916</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>40.49041281080186</v>
+        <v>26.70719691830021</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>42.80154392629986</v>
+        <v>26.70719692296064</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>19.8154692424337</v>
+        <v>26.70719688071201</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.50475730534882</v>
+        <v>26.70719691205058</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>45.66662519050165</v>
+        <v>26.70719692200586</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>4.506640307417193</v>
+        <v>26.70719689674792</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.87001101587721</v>
+        <v>26.70719692972143</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.47349584696214</v>
+        <v>26.70719694142671</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-5.321091485031012</v>
+        <v>26.70719689029821</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>15.28646194810774</v>
+        <v>26.70719692754642</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.28774234370893</v>
+        <v>26.70719694055716</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-4.798914224484747</v>
+        <v>26.70719690094321</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.52237590772467</v>
+        <v>26.70719694140251</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>40.74701172669759</v>
+        <v>26.70719695291473</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.97321737730446</v>
+        <v>26.70719694966023</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>43.13636716220775</v>
+        <v>26.70719696547418</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>47.55966025867728</v>
+        <v>26.70719697106371</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>9.800146713885965</v>
+        <v>26.70719691856992</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>43.01757173907143</v>
+        <v>26.70719695814661</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>49.38166721932659</v>
+        <v>26.70719696862477</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>18.63291248993746</v>
+        <v>26.70719693248162</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.25498431095306</v>
+        <v>26.70719696618083</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>47.09388746712759</v>
+        <v>26.70719697872635</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>6.407855907793291</v>
+        <v>26.70719692568208</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.28968356459469</v>
+        <v>26.70719696401991</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>45.05831670299981</v>
+        <v>26.70719697768454</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>11.39394990364443</v>
+        <v>26.70719693836215</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>50.95277953592165</v>
+        <v>26.70719697976019</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>68.10086423609434</v>
+        <v>26.70719699203319</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>59.65205791812733</v>
+        <v>26.70719698615633</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>74.19708044641229</v>
+        <v>26.70719700177964</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>84.20821936857206</v>
+        <v>26.7071970064871</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.97500371236845</v>
+        <v>26.70719695346219</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>64.76156353867407</v>
+        <v>26.70719699240627</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>77.91203552469679</v>
+        <v>26.70719700385093</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>13.99512954682983</v>
+        <v>26.70719686028744</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.88089593533483</v>
+        <v>26.70719688724127</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.94199098252395</v>
+        <v>26.70719689709734</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>7.28899377027242</v>
+        <v>26.70719685672767</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>36.79360358973262</v>
+        <v>26.70719688894961</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>40.97636563029175</v>
+        <v>26.70719689916613</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>14.06880217166147</v>
+        <v>26.70719686334326</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>53.3920556904436</v>
+        <v>26.70719689755919</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>58.69034408855627</v>
+        <v>26.70719690665344</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>48.97369535360493</v>
+        <v>26.7071969068351</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>58.40339152134263</v>
+        <v>26.70719691833762</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>59.4293148447817</v>
+        <v>26.70719692241716</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>23.46722165920156</v>
+        <v>26.70719688188287</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>48.47041164493482</v>
+        <v>26.70719691233997</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>59.5196547824668</v>
+        <v>26.70719692161028</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>6.495557241620752</v>
+        <v>26.70719689663626</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.21120576224551</v>
+        <v>26.70719692814652</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.01785082905788</v>
+        <v>26.70719693888599</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-0.8864448503678517</v>
+        <v>26.70719689075895</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.1522758469835</v>
+        <v>26.70719692658245</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.29118513384044</v>
+        <v>26.70719693841401</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>3.705950982570233</v>
+        <v>26.7071969010013</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>43.58461621347514</v>
+        <v>26.70719693958108</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>54.67725548176375</v>
+        <v>26.70719695008354</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>41.28564819348944</v>
+        <v>26.70719694668611</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>57.33665423607631</v>
+        <v>26.70719696127034</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>58.872006775156</v>
+        <v>26.70719696627938</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.1163601313439</v>
+        <v>26.7071969164581</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>54.78712949375647</v>
+        <v>26.70719695429503</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>61.16255297446457</v>
+        <v>26.70719696428101</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>13.47059690227791</v>
+        <v>26.70719693075472</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>35.95863453401566</v>
+        <v>26.70719696300972</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>45.77666499495101</v>
+        <v>26.70719697444239</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.756332848013123</v>
+        <v>26.70719692453356</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>39.67953058702443</v>
+        <v>26.70719696137438</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>47.53241305219807</v>
+        <v>26.70719697379243</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>13.51242407303015</v>
+        <v>26.70719693680898</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>58.43118246428961</v>
+        <v>26.70719697630676</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>73.77826699946458</v>
+        <v>26.70719698742162</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>63.27272240790646</v>
+        <v>26.70719698178524</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>79.83086068002093</v>
+        <v>26.70719699608022</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>86.97178892586808</v>
+        <v>26.70719700030356</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.97939331795824</v>
+        <v>26.70719694990505</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>71.03804080510443</v>
+        <v>26.70719698735839</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>81.3342928135944</v>
+        <v>26.70719699809023</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>10.68762276980689</v>
+        <v>26.70719686305319</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.06254271941547</v>
+        <v>26.707196892465</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.17809405554712</v>
+        <v>26.70719690366187</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>3.608015547363621</v>
+        <v>26.70719686023527</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.04721123040594</v>
+        <v>26.70719689547418</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.34933480573271</v>
+        <v>26.70719690713521</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.224499583574943</v>
+        <v>26.70719686772345</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>50.14549327995319</v>
+        <v>26.70719690529046</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>57.54024832610527</v>
+        <v>26.70719691558763</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>45.41484387640609</v>
+        <v>26.70719691534295</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>52.84638743019453</v>
+        <v>26.70719692821103</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>55.65461068141234</v>
+        <v>26.7071969329016</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>23.7002047065838</v>
+        <v>26.7071968886619</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.25291462674473</v>
+        <v>26.70719692121949</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>57.76307543256419</v>
+        <v>26.70719693165173</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>7.103612397636365</v>
+        <v>26.70719690610703</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.13298677753875</v>
+        <v>26.7071969406059</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.20202130949566</v>
+        <v>26.70719695267122</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-0.9648558011223969</v>
+        <v>26.70719690033333</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.63606546912106</v>
+        <v>26.70719693942722</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>40.51059103287554</v>
+        <v>26.70719695285482</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1.279434454995179</v>
+        <v>26.70719691174333</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>46.26114185188516</v>
+        <v>26.7071969540753</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>58.17114672923766</v>
+        <v>26.70719696585214</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>43.97678043478408</v>
+        <v>26.70719696153836</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>59.92894474313722</v>
+        <v>26.7071969780204</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>64.97448060032087</v>
+        <v>26.70719698368043</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>17.9178096109625</v>
+        <v>26.707196928727</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>59.39631823990423</v>
+        <v>26.70719696992292</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>66.15397537243541</v>
+        <v>26.70719698077865</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>16.22491847250719</v>
+        <v>26.70719694097483</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.3538189388358</v>
+        <v>26.70719697617305</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>50.70613193958158</v>
+        <v>26.70719698908447</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>7.207475309534427</v>
+        <v>26.70719693481089</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>45.32105657665823</v>
+        <v>26.70719697493939</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>54.89527575784459</v>
+        <v>26.70719698903901</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>13.14505521362556</v>
+        <v>26.70719694816485</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>62.66602785339686</v>
+        <v>26.70719699136163</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>79.92636061198229</v>
+        <v>26.70719700395144</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>70.04942236642697</v>
+        <v>26.70719699706757</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>85.80250354172853</v>
+        <v>26.7071970133111</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>95.58846068129976</v>
+        <v>26.70719701808627</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>31.26136643779968</v>
+        <v>26.70719696269384</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>76.59467147082451</v>
+        <v>26.7071970032295</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>89.31971928161566</v>
+        <v>26.70719701512423</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>14.80283701034483</v>
+        <v>26.70719686236935</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.47977767923018</v>
+        <v>26.70719689007646</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.42065997663173</v>
+        <v>26.70719690076956</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11.16960615592701</v>
+        <v>26.70719685989145</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>36.61763803731142</v>
+        <v>26.70719689301298</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>41.97139235382937</v>
+        <v>26.70719690415608</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>14.26553059606005</v>
+        <v>26.70719686649667</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>47.64345925208859</v>
+        <v>26.70719690196889</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>55.39259515217781</v>
+        <v>26.7071969118338</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>43.85868076134178</v>
+        <v>26.70719691204024</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>50.93689086176488</v>
+        <v>26.70719692435315</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>54.43928945496577</v>
+        <v>26.70719692892753</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.26806796279428</v>
+        <v>26.70719688724744</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>40.01645297164546</v>
+        <v>26.70719691781992</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>55.04701141599601</v>
+        <v>26.70719692779961</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>12.08509683414825</v>
+        <v>26.70719690488384</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.13888914505732</v>
+        <v>26.70719693733954</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>37.29247564332405</v>
+        <v>26.70719694895201</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.519138366100549</v>
+        <v>26.70719689990139</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.11659037919011</v>
+        <v>26.70719693659567</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>46.57618002391602</v>
+        <v>26.70719694948333</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>8.052736636185138</v>
+        <v>26.70719690999428</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>45.73989045520377</v>
+        <v>26.70719694992133</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>58.8594060303076</v>
+        <v>26.70719696128005</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>44.59399237532625</v>
+        <v>26.70719695737584</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>59.77639921181052</v>
+        <v>26.7071969731112</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>65.81381133643866</v>
+        <v>26.70719697867876</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>21.97677246006756</v>
+        <v>26.70719692667785</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>56.87095645722857</v>
+        <v>26.707196965488</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>65.7182537617697</v>
+        <v>26.70719697586181</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>20.53564541090354</v>
+        <v>26.70719693852252</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>38.98418203579449</v>
+        <v>26.7071969716636</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.90590544939266</v>
+        <v>26.70719698407761</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.60407744934215</v>
+        <v>26.70719693305242</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>47.82290083032269</v>
+        <v>26.70719697071858</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.4993802995952</v>
+        <v>26.70719698426458</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>18.43232262248891</v>
+        <v>26.70719694506206</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>60.96316940022858</v>
+        <v>26.70719698584125</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>79.1260437210546</v>
+        <v>26.70719699797208</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>68.79393453307981</v>
+        <v>26.70719699155775</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>84.35610188040015</v>
+        <v>26.70719700711644</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>95.29133024129627</v>
+        <v>26.70719701178235</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.2093262304849</v>
+        <v>26.70719695937132</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>72.48318124717939</v>
+        <v>26.70719699752903</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>87.75189214842132</v>
+        <v>26.70719700892944</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>5.814116010527194</v>
+        <v>26.70719685823488</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.45996660233582</v>
+        <v>26.70719688709479</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.83535162821502</v>
+        <v>26.70719689761311</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>0.2041365047016299</v>
+        <v>26.70719685464565</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.67729925669491</v>
+        <v>26.7071968889918</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.34980971327028</v>
+        <v>26.7071968999741</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>4.214941346375216</v>
+        <v>26.70719686191826</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>44.4285863701248</v>
+        <v>26.70719689851811</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>52.52840626996888</v>
+        <v>26.70719690830496</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.9927644480989</v>
+        <v>26.70719690846309</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>50.18428334874137</v>
+        <v>26.70719692070118</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.59297036575615</v>
+        <v>26.70719692513065</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.8304442214671</v>
+        <v>26.70719688160007</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.26565624312727</v>
+        <v>26.70719691407594</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>50.92273392673823</v>
+        <v>26.70719692402712</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>2.491915709848136</v>
+        <v>26.70719689780429</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.45398342043006</v>
+        <v>26.70719693160781</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.37710884723856</v>
+        <v>26.70719694293185</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-4.207568731085317</v>
+        <v>26.70719689176893</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>22.97875579733045</v>
+        <v>26.70719693005269</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.89042630471883</v>
+        <v>26.70719694256055</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-3.558830596016875</v>
+        <v>26.70719690287613</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>38.63074849869902</v>
+        <v>26.70719694418437</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>50.87539887862967</v>
+        <v>26.70719695536149</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.02697206199219</v>
+        <v>26.70719695168112</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>53.3878165266447</v>
+        <v>26.70719696728964</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>56.24775228874651</v>
+        <v>26.70719697273455</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>8.195957809427725</v>
+        <v>26.707196919118</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>50.34283065189436</v>
+        <v>26.70719695951307</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>57.92501219167485</v>
+        <v>26.70719697019116</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>8.821597391161649</v>
+        <v>26.70719693307822</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.1618773815135</v>
+        <v>26.70719696760512</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.13795709569645</v>
+        <v>26.70719697976483</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1.75134834963194</v>
+        <v>26.70719692670497</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.41821487712208</v>
+        <v>26.70719696601851</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>45.55427509864035</v>
+        <v>26.70719697924589</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>5.802602343101285</v>
+        <v>26.70719693981368</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>52.63827201466836</v>
+        <v>26.70719698201181</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>69.76623824564842</v>
+        <v>26.70719699393499</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>60.10140935806466</v>
+        <v>26.70719698783355</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>78.05312778927058</v>
+        <v>26.70719700320697</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>85.60660770279162</v>
+        <v>26.70719700778206</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>19.77511390849449</v>
+        <v>26.70719695361205</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>67.36923984021388</v>
+        <v>26.70719699355041</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>79.65881145010098</v>
+        <v>26.70719700504447</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2.916423582159346</v>
+        <v>26.70719685527787</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.340988271107193</v>
+        <v>26.70719688099395</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>12.06210265640649</v>
+        <v>26.70719689066547</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-3.64559313451808</v>
+        <v>26.70719685198979</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>13.91753639258172</v>
+        <v>26.70719688252274</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16.50399814102579</v>
+        <v>26.70719689272562</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-2.662340862407525</v>
+        <v>26.70719685802963</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.98519006036117</v>
+        <v>26.70719689074022</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.63067805424718</v>
+        <v>26.70719689983651</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.01318201591007</v>
+        <v>26.70719690100953</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.91555326147218</v>
+        <v>26.70719691230817</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.42826022224591</v>
+        <v>26.70719691668268</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>9.907111027475803</v>
+        <v>26.70719687783677</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.05932530990766</v>
+        <v>26.70719690654487</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.87039118147275</v>
+        <v>26.70719691557448</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>4.333555315963181</v>
+        <v>26.70719689491191</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>22.46768438715699</v>
+        <v>26.70719692523846</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.33403022300752</v>
+        <v>26.70719693588573</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-2.797103785618638</v>
+        <v>26.70719688931386</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>19.03736768436124</v>
+        <v>26.70719692353656</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.38278975178103</v>
+        <v>26.70719693544174</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-3.164791767946113</v>
+        <v>26.7071968988942</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.18269684362188</v>
+        <v>26.70719693600562</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.57761344020193</v>
+        <v>26.70719694655464</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.17781039827051</v>
+        <v>26.70719694377522</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.7317859878532</v>
+        <v>26.70719695827349</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>51.2534804108418</v>
+        <v>26.70719696345941</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>9.685063408083362</v>
+        <v>26.70719691501392</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>41.40226848631291</v>
+        <v>26.70719695144582</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.80336643826575</v>
+        <v>26.70719696105923</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>14.84875724469179</v>
+        <v>26.70719692757741</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>32.69338635421062</v>
+        <v>26.70719695858617</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>43.4537521821049</v>
+        <v>26.70719696995139</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>6.696523725140981</v>
+        <v>26.70719692152951</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.10268448051599</v>
+        <v>26.70719695677631</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.10991820199362</v>
+        <v>26.70719696922086</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>10.22893790979123</v>
+        <v>26.70719693293056</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.96006485784297</v>
+        <v>26.70719697088022</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>64.350278936309</v>
+        <v>26.7071969820932</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>54.68554470502608</v>
+        <v>26.70719697687638</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>67.27596716346125</v>
+        <v>26.70719699121997</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>79.86328052080405</v>
+        <v>26.7071969955827</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.47750230895685</v>
+        <v>26.70719694673367</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>58.62015592413965</v>
+        <v>26.70719698253787</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>72.79510350940834</v>
+        <v>26.70719699302398</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>4.351709248070776</v>
+        <v>26.70719686006857</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>12.84450567841772</v>
+        <v>26.70719688760894</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.30910882352916</v>
+        <v>26.70719689826144</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-1.1132882370547</v>
+        <v>26.70719685745129</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.18707732429677</v>
+        <v>26.707196890315</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.3523393742672</v>
+        <v>26.70719690145846</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1.957906209103701</v>
+        <v>26.70719686399612</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.05933393857725</v>
+        <v>26.70719689922342</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>41.52873305833594</v>
+        <v>26.70719690907505</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.79120907161084</v>
+        <v>26.70719690957538</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.51135092039713</v>
+        <v>26.70719692185815</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.88284077297651</v>
+        <v>26.70719692644277</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.87019054933715</v>
+        <v>26.70719688493973</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.08341203742001</v>
+        <v>26.70719691543066</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>43.31209298122295</v>
+        <v>26.70719692532886</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>1.99907840099414</v>
+        <v>26.70719690215945</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>19.98746448236422</v>
+        <v>26.70719693443899</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.80997397993082</v>
+        <v>26.70719694606643</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-2.365581338668896</v>
+        <v>26.70719689702214</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>21.29402795315989</v>
+        <v>26.70719693348384</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>34.66953586935325</v>
+        <v>26.70719694642637</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-3.336907878947081</v>
+        <v>26.70719690706527</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>32.17220312346779</v>
+        <v>26.70719694674045</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>47.1377168127709</v>
+        <v>26.70719695813258</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.29850826226534</v>
+        <v>26.70719695447577</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>48.21721479565418</v>
+        <v>26.70719697017493</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>55.73098649849424</v>
+        <v>26.70719697577193</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>11.10926687568227</v>
+        <v>26.70719692395874</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>45.24223177938033</v>
+        <v>26.70719696265312</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>55.62448415961777</v>
+        <v>26.70719697300083</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>10.12240281415996</v>
+        <v>26.70719693583723</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.3792622029852</v>
+        <v>26.7071969688074</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.67161329619887</v>
+        <v>26.70719698123069</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>4.269227515158047</v>
+        <v>26.70719693020692</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.52250392589325</v>
+        <v>26.70719696765179</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.9738530699081</v>
+        <v>26.70719698123886</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>6.458553971512089</v>
+        <v>26.70719694216694</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>46.7824473462485</v>
+        <v>26.70719698270445</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>66.44716302458232</v>
+        <v>26.7071969948508</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>56.77028817084117</v>
+        <v>26.7071969886856</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>71.88880600297678</v>
+        <v>26.7071970042085</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>84.18136116428786</v>
+        <v>26.70719700889087</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>23.04537357218197</v>
+        <v>26.70719695667796</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>60.09648140403309</v>
+        <v>26.70719699471283</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>76.97983919744948</v>
+        <v>26.70719700607611</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>14.76045117542895</v>
+        <v>26.70719686935391</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>27.76090671357364</v>
+        <v>26.70719689592579</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.86232520900568</v>
+        <v>26.70719690584118</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>10.27940849751448</v>
+        <v>26.70719686678087</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>42.7089820048905</v>
+        <v>26.70719689880936</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>43.64085153095105</v>
+        <v>26.70719690904099</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>16.31778993673685</v>
+        <v>26.707196873636</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>55.77253605075093</v>
+        <v>26.70719690758506</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.3329396918559</v>
+        <v>26.70719691676071</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>50.45496624389594</v>
+        <v>26.70719691658197</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>58.41057925063637</v>
+        <v>26.70719692806088</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>59.31219296100305</v>
+        <v>26.70719693216208</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>31.69680510256477</v>
+        <v>26.70719689235422</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>48.46150968343559</v>
+        <v>26.70719692179435</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>61.82218895823326</v>
+        <v>26.7071969311856</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.46681263207325</v>
+        <v>26.70719690716666</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.91600204435013</v>
+        <v>26.70719693829656</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.44435518621828</v>
+        <v>26.70719694901969</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>3.44056578022564</v>
+        <v>26.70719690189582</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.77609597688121</v>
+        <v>26.70719693746741</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.84591160337472</v>
+        <v>26.7071969492346</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>6.661294419242868</v>
+        <v>26.70719691233655</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>49.15500175891376</v>
+        <v>26.70719695060601</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>56.11538216765257</v>
+        <v>26.7071969611307</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>44.22820158041344</v>
+        <v>26.70719695732518</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>58.16093839770163</v>
+        <v>26.70719697199604</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>60.71336498773673</v>
+        <v>26.70719697694723</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>21.70195892903653</v>
+        <v>26.70719692753377</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>57.5364522599653</v>
+        <v>26.7071969647457</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>62.20236684368881</v>
+        <v>26.70719697460086</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>18.26374019163629</v>
+        <v>26.70719693911994</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>39.05695759591361</v>
+        <v>26.70719697092974</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>46.86355466352344</v>
+        <v>26.70719698237177</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>10.71095674649131</v>
+        <v>26.70719693353114</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>47.9857429412939</v>
+        <v>26.70719697004708</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>52.37364923627092</v>
+        <v>26.70719698240965</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>17.43895405442106</v>
+        <v>26.70719694577837</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>63.88194355677891</v>
+        <v>26.70719698487131</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>75.59156739717594</v>
+        <v>26.70719699604204</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>68.27176848564775</v>
+        <v>26.70719698997923</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>81.93399279561142</v>
+        <v>26.70719700440578</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>88.82163737433876</v>
+        <v>26.70719700859329</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>33.12398367698746</v>
+        <v>26.70719695881822</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>73.5413540980316</v>
+        <v>26.70719699544224</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>83.69906593445876</v>
+        <v>26.70719700611812</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>5.280058488076062</v>
+        <v>26.70719685973958</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.62562386233111</v>
+        <v>26.70719688838927</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.88981935917786</v>
+        <v>26.70719689882874</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-0.358343592436011</v>
+        <v>26.70719685647703</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.36886038879931</v>
+        <v>26.70719689059231</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.72146231661667</v>
+        <v>26.70719690146201</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>4.117107924397786</v>
+        <v>26.70719686365986</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>44.00633479509626</v>
+        <v>26.7071968999698</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>51.82688307965641</v>
+        <v>26.70719690968607</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>40.69153868656907</v>
+        <v>26.70719690988362</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>49.66432037471135</v>
+        <v>26.70719692208734</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>50.95463014451194</v>
+        <v>26.70719692644512</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>12.84464739363164</v>
+        <v>26.7071968832442</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>38.65123053369429</v>
+        <v>26.70719691545371</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>49.80447353339744</v>
+        <v>26.70719692530828</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>3.322714452805965</v>
+        <v>26.70719689933221</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.59075903593053</v>
+        <v>26.70719693284398</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.24240909770871</v>
+        <v>26.70719694413883</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-3.592891839528527</v>
+        <v>26.70719689358616</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>24.23510127137547</v>
+        <v>26.70719693156786</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.97242053914682</v>
+        <v>26.70719694398242</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>-1.989819035510699</v>
+        <v>26.7071969045884</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>40.45810823122618</v>
+        <v>26.70719694552177</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>52.47731542944599</v>
+        <v>26.7071969566803</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>39.48778537547176</v>
+        <v>26.70719695303777</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>55.00444120844749</v>
+        <v>26.70719696864984</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>57.58330467476578</v>
+        <v>26.70719697396749</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>9.738928923832802</v>
+        <v>26.70719692074299</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>52.26293603177829</v>
+        <v>26.70719696091292</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>59.33130124640307</v>
+        <v>26.707196971389</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>8.720106622057394</v>
+        <v>26.70719693372711</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.92129170635055</v>
+        <v>26.70719696793367</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.23347504529431</v>
+        <v>26.70719698004499</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>0.9911820416072139</v>
+        <v>26.70719692760256</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>34.39396770567421</v>
+        <v>26.7071969665709</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.89502591415412</v>
+        <v>26.70719697970943</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>5.7952245538475</v>
+        <v>26.70719694051622</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>52.15791399966817</v>
+        <v>26.7071969822899</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>69.86753321151686</v>
+        <v>26.70719699418729</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>58.85835710733324</v>
+        <v>26.7071969881938</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>76.12982956153806</v>
+        <v>26.70719700353054</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>83.81499160662497</v>
+        <v>26.70719700802609</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>18.90896237235892</v>
+        <v>26.70719695428744</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>65.40298248482489</v>
+        <v>26.70719699391282</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>78.72472282326505</v>
+        <v>26.7071970052721</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.152</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.547</v>
+        <v>16.967</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.143</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.688</v>
+        <v>10.315</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.034</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.077</v>
+        <v>8.057</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.70719685593591</v>
+        <v>11.04100520186471</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.70719688427765</v>
+        <v>17.26284006319517</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.70719689518838</v>
+        <v>20.95615139864451</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.70719685257867</v>
+        <v>-2.432173818026577</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.70719688631466</v>
+        <v>21.89901474211464</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.70719689780833</v>
+        <v>24.00848941910352</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.70719685943627</v>
+        <v>1.385604661796723</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.7071968955926</v>
+        <v>34.29546419193388</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.70719690571928</v>
+        <v>34.72868134267699</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.70719690634922</v>
+        <v>35.50734876573984</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.70719691891586</v>
+        <v>39.52649702010078</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.70719692363365</v>
+        <v>43.42441588615744</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.70719688087093</v>
+        <v>15.12383751749114</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.70719691232409</v>
+        <v>33.53422262955756</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.70719692243641</v>
+        <v>41.34955997038184</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.70719689998291</v>
+        <v>18.34584814575637</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.70719693335352</v>
+        <v>38.28471781564917</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.70719694524018</v>
+        <v>43.9224748000503</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.70719689388099</v>
+        <v>6.29019190206586</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.70719693151338</v>
+        <v>33.2896705165186</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.70719694482396</v>
+        <v>40.9081916641375</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.70719690462669</v>
+        <v>10.35150612513593</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.70719694553198</v>
+        <v>51.70039848425716</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.70719695720393</v>
+        <v>62.05296759653459</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.70719695356047</v>
+        <v>55.29742046438444</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.70719696965964</v>
+        <v>66.04246192337533</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26.70719697533027</v>
+        <v>72.63902512353053</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.70719692191718</v>
+        <v>22.3299577311732</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.70719696188187</v>
+        <v>62.9714414658161</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26.70719697251415</v>
+        <v>72.1884255475133</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.70719693481793</v>
+        <v>24.04646174355386</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.7071969689049</v>
+        <v>46.57968854436572</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>26.70719698158548</v>
+        <v>51.97938315195335</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.70719692831059</v>
+        <v>10.28031274019326</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.70719696700499</v>
+        <v>44.7636314128188</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.70719698092811</v>
+        <v>51.65047943527927</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.70719694099586</v>
+        <v>16.2552102213565</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26.70719698279197</v>
+        <v>66.52908178842073</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.7071969952139</v>
+        <v>77.21692513620187</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.70719698901662</v>
+        <v>81.85984706791224</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26.70719700490969</v>
+        <v>89.92555091839009</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.70719700968309</v>
+        <v>97.7573594134567</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.70719695587138</v>
+        <v>34.93936310773318</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.70719699515525</v>
+        <v>82.53532164683993</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>26.70719700677894</v>
+        <v>91.27529516688483</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.70719686223784</v>
+        <v>12.50176044795326</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.70719689082577</v>
+        <v>38.17177994681023</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.70719690121139</v>
+        <v>43.2644828554844</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.70719685908429</v>
+        <v>4.93830185288785</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.70719689335411</v>
+        <v>45.35207620522155</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.70719690410306</v>
+        <v>48.63357730925526</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.70719686623858</v>
+        <v>8.310191834624824</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.70719690252817</v>
+        <v>67.50626743679689</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.70719691206728</v>
+        <v>68.49978627492411</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.70719691170036</v>
+        <v>61.77720777891354</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>26.70719692385039</v>
+        <v>68.23725985505622</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>26.70719692804236</v>
+        <v>72.65784533375658</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.70719688514158</v>
+        <v>20.99037636820514</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.7071969172768</v>
+        <v>62.38607618190184</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.70719692708867</v>
+        <v>68.52360960162343</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>26.70719690059981</v>
+        <v>11.65381546673953</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.70719693399646</v>
+        <v>41.28289385459008</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.70719694524428</v>
+        <v>46.41786793479159</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.70719689484668</v>
+        <v>4.741381491137599</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.70719693286902</v>
+        <v>39.6356501049224</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.70719694528746</v>
+        <v>47.35433395522446</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.70719690586177</v>
+        <v>6.62161262741704</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.7071969467353</v>
+        <v>62.6201574425518</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>26.70719695769733</v>
+        <v>71.89567910368712</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.70719695369013</v>
+        <v>61.91681005655462</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.70719696913338</v>
+        <v>73.18969538448637</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.7071969742441</v>
+        <v>78.39983367991269</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.70719692160488</v>
+        <v>18.99576092060516</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.7071969615908</v>
+        <v>72.84506964572245</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.7071969720683</v>
+        <v>78.26168075575237</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.70719693547445</v>
+        <v>14.79364744143228</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.70719696959489</v>
+        <v>48.29607486443314</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.70719698158302</v>
+        <v>54.4020006534677</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.70719692938975</v>
+        <v>5.466266831177322</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.70719696843748</v>
+        <v>48.80096228267702</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.70719698144981</v>
+        <v>56.44647137055706</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.70719694247874</v>
+        <v>8.18165168616207</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.70719698425899</v>
+        <v>74.96670602053959</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.70719699588117</v>
+        <v>85.52071167537945</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.70719698957354</v>
+        <v>84.47213633611878</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.70719700466544</v>
+        <v>96.56932328462501</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.70719700899983</v>
+        <v>102.462950940306</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.70719695579581</v>
+        <v>26.55178640779395</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.70719699534138</v>
+        <v>89.73154803462685</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.70719700661427</v>
+        <v>96.58412306835528</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.7071968609938</v>
+        <v>21.30294974649528</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.70719688939936</v>
+        <v>39.28299142116705</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.70719689963675</v>
+        <v>42.14077781727848</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26.70719685729899</v>
+        <v>7.003403133348581</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.70719689138619</v>
+        <v>43.96111988664185</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.70719690205317</v>
+        <v>44.89086462418243</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.70719686451685</v>
+        <v>14.21465339092422</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.70719690066755</v>
+        <v>67.15331210426578</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.7071969101263</v>
+        <v>65.56588723092061</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.70719691008867</v>
+        <v>61.4309983693263</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.70719692211298</v>
+        <v>69.04146537777302</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.70719692631661</v>
+        <v>70.84762002321243</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.70719688373092</v>
+        <v>29.35930829288997</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.70719691567331</v>
+        <v>60.39156214245722</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.70719692539128</v>
+        <v>64.98223210557023</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.707196901291</v>
+        <v>23.37769536208956</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.70719693464458</v>
+        <v>48.19783760088598</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>26.70719694573546</v>
+        <v>51.11986172409605</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.70719689515396</v>
+        <v>8.099679803808421</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.70719693319115</v>
+        <v>43.62151399218266</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.70719694549144</v>
+        <v>48.66673477978892</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.70719690635633</v>
+        <v>13.68232740940665</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.70719694725708</v>
+        <v>67.78781244299564</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.70719695813595</v>
+        <v>74.09278003852249</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.70719695426747</v>
+        <v>66.56101208924983</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.70719696962448</v>
+        <v>76.13662843155043</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>26.70719697472376</v>
+        <v>78.55825389740971</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.70719692216883</v>
+        <v>28.4181796555991</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.70719696206321</v>
+        <v>73.45407820233871</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>26.70719697249736</v>
+        <v>78.14700408667454</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.70719693644368</v>
+        <v>24.49178217492269</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.70719697050319</v>
+        <v>53.38319521335008</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>26.70719698233235</v>
+        <v>56.27517161986908</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>26.70719692992191</v>
+        <v>8.279587709221861</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.70719696899507</v>
+        <v>53.31279746620753</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>26.70719698185081</v>
+        <v>56.90559980580194</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.70719694319865</v>
+        <v>14.42694065686995</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.70719698499922</v>
+        <v>79.93162989652255</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.70719699650879</v>
+        <v>86.32635906689141</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>26.70719699036162</v>
+        <v>89.9765714753856</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>26.7071970053637</v>
+        <v>99.22057798895935</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>26.70719700967785</v>
+        <v>102.5223241476697</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.70719695660863</v>
+        <v>37.39000596389037</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.70719699602974</v>
+        <v>91.69025513495036</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.70719700721457</v>
+        <v>96.47227975825075</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>26.70719685485599</v>
+        <v>14.42787026708033</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.70719688255784</v>
+        <v>20.54770179725953</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.70719689315043</v>
+        <v>23.92420236419621</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>26.70719685152931</v>
+        <v>0.3477061824917485</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.70719688453435</v>
+        <v>24.27475119779134</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.70719689572637</v>
+        <v>26.93473594973151</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>26.70719685806258</v>
+        <v>5.537007267375547</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.70719689341396</v>
+        <v>35.6038922866166</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.70719690324595</v>
+        <v>36.24605012939384</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.70719690431755</v>
+        <v>36.93030092711146</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.70719691653462</v>
+        <v>40.19204737764677</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.70719692121811</v>
+        <v>46.58831625917666</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.70719687994965</v>
+        <v>29.43663596141968</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.70719691057873</v>
+        <v>46.65215592291882</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.70719692043007</v>
+        <v>52.89306999625622</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>26.70719689743108</v>
+        <v>19.48506000384275</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.7071969300191</v>
+        <v>37.69003091463431</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>26.70719694157386</v>
+        <v>42.86016456357434</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.70719689135054</v>
+        <v>8.71309426061492</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.70719692818691</v>
+        <v>34.03701448914781</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.70719694112315</v>
+        <v>42.32135777116017</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.70719690162604</v>
+        <v>11.99564728728751</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.70719694158397</v>
+        <v>48.46702049244998</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.70719695294226</v>
+        <v>58.98324491922791</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.70719694974894</v>
+        <v>49.79081280845608</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.70719696532672</v>
+        <v>59.76877320025571</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.70719697103802</v>
+        <v>68.24727851635619</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.70719691918742</v>
+        <v>26.29548646954197</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.70719695815618</v>
+        <v>64.22751127280574</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.70719696850793</v>
+        <v>70.66642164361465</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.70719693262584</v>
+        <v>26.95861207115808</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>26.70719696589073</v>
+        <v>47.78382791084876</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.70719697823882</v>
+        <v>52.30541717812903</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.70719692607925</v>
+        <v>13.40759623411633</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.70719696394113</v>
+        <v>46.40708028557442</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.70719697750649</v>
+        <v>53.17861027998475</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.70719693837604</v>
+        <v>19.00249760715623</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.70719697923816</v>
+        <v>65.06338289201014</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>26.70719699134392</v>
+        <v>75.77517295239643</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>26.70719698557343</v>
+        <v>75.21353389553151</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.70719700103184</v>
+        <v>83.31350040669319</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.70719700578813</v>
+        <v>93.42535362705219</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.70719695355909</v>
+        <v>40.21358961347393</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>26.70719699186872</v>
+        <v>84.43129710695918</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.70719700321008</v>
+        <v>91.08646604971821</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.70719686209715</v>
+        <v>22.38243244817885</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.7071968902962</v>
+        <v>38.65540663177006</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.7071969008829</v>
+        <v>40.09512590111294</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>26.707196858764</v>
+        <v>7.465439484736791</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.70719689250231</v>
+        <v>44.12696364074121</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.70719690358609</v>
+        <v>45.12526326358</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.70719686579607</v>
+        <v>14.24017015331214</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.7071969018114</v>
+        <v>63.71353918283599</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.70719691159217</v>
+        <v>61.04690022034103</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.70719691156561</v>
+        <v>54.39754347050484</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.70719692388765</v>
+        <v>60.84533739903554</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>26.70719692841477</v>
+        <v>62.54872015213527</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.70719688620064</v>
+        <v>28.79248207766332</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.70719691707673</v>
+        <v>51.11704571734542</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.70719692700577</v>
+        <v>55.48710469788304</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.70719690611945</v>
+        <v>30.15369546225438</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.70719693916411</v>
+        <v>54.54516259701849</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.70719695060602</v>
+        <v>55.65719941839953</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.70719690018389</v>
+        <v>15.62468915350353</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.70719693772505</v>
+        <v>50.12744481510492</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.70719695048964</v>
+        <v>54.70203377280593</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.70719691106679</v>
+        <v>22.18869191601611</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.70719695167316</v>
+        <v>73.65654208107095</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26.70719696288204</v>
+        <v>78.26348164625881</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.70719695886308</v>
+        <v>73.62256811549958</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.70719697464024</v>
+        <v>83.76882015322636</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>26.70719698014171</v>
+        <v>86.90059368138252</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.70719692761058</v>
+        <v>42.07088294965379</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.70719696688969</v>
+        <v>82.88558807390577</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.70719693974356</v>
+        <v>30.75360998732888</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.70719697345147</v>
+        <v>57.7453004092141</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.70719698574879</v>
+        <v>60.04325931362843</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.70719693331862</v>
+        <v>13.95247453816015</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.70719697180741</v>
+        <v>55.58017436181131</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.70719698528726</v>
+        <v>59.80788080831478</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.70719694609653</v>
+        <v>20.67110834684484</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.70719698753248</v>
+        <v>81.18325731459461</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>26.70719699957787</v>
+        <v>88.19818765413376</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.70719699301793</v>
+        <v>90.55857267300938</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.7071970086419</v>
+        <v>99.866393443871</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.70719701327538</v>
+        <v>104.7802755879893</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>26.7071969602981</v>
+        <v>46.00289816028565</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.70719699892144</v>
+        <v>93.93865380316149</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.70719701031038</v>
+        <v>98.54469121107739</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.70719687125593</v>
+        <v>16.32440594730495</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.70719689674576</v>
+        <v>37.09498670054799</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.7071969058653</v>
+        <v>40.98745156054505</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.70719686855127</v>
+        <v>6.143239181892849</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.7071968993152</v>
+        <v>45.94256450274844</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.70719690872822</v>
+        <v>48.11746134790093</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.70719687500861</v>
+        <v>8.974223421651523</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.70719690752077</v>
+        <v>67.79273200390223</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.70719691589061</v>
+        <v>65.55838444195989</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.70719691519718</v>
+        <v>51.48874034629719</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.70719692599109</v>
+        <v>59.47317867602712</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.70719692960589</v>
+        <v>61.56964472179926</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.70719689142535</v>
+        <v>17.7588435438476</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.70719691939172</v>
+        <v>44.18668163482998</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.70719692807257</v>
+        <v>46.85928565105135</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.70719691039088</v>
+        <v>24.22485087988904</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.70719694038185</v>
+        <v>53.95981415359751</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.70719695012971</v>
+        <v>56.67070062490531</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.70719690532203</v>
+        <v>8.933927144325892</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>26.7071969396703</v>
+        <v>48.79413751846754</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.70719695046719</v>
+        <v>54.2056724899057</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.70719691549609</v>
+        <v>14.09000478768436</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.70719695230903</v>
+        <v>75.47273681847039</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.70719696182967</v>
+        <v>79.69639629481557</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.70719695788084</v>
+        <v>69.32721147331063</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.70719697160467</v>
+        <v>80.49053496399799</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.70719697605323</v>
+        <v>84.19576166786378</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.70719692891266</v>
+        <v>30.88733180153044</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.70719696448207</v>
+        <v>81.36311421291484</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.7071969735402</v>
+        <v>83.92564829997345</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.70719693967474</v>
+        <v>25.74035373536235</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>26.70719697020212</v>
+        <v>57.40307656403341</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.7071969806628</v>
+        <v>61.83233089989631</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.70719693429922</v>
+        <v>7.642804813629432</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.7071969694337</v>
+        <v>52.26820191034075</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>26.7071969808255</v>
+        <v>58.40820213573649</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>26.70719694618169</v>
+        <v>11.81446570107734</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.70719698368776</v>
+        <v>81.09407701079019</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.70719699386773</v>
+        <v>87.58253981550146</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.70719698787313</v>
+        <v>86.56738234399982</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.70719700135929</v>
+        <v>96.86925974047777</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.70719700513775</v>
+        <v>100.1560723753705</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.70719695757137</v>
+        <v>33.71607507634138</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.70719699261679</v>
+        <v>90.89850458299337</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.70719700251473</v>
+        <v>93.40959650923375</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.70719685763698</v>
+        <v>5.68200318199268</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>26.70719688270054</v>
+        <v>10.74702953413603</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.70719689213318</v>
+        <v>13.25884732711601</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.70719685478026</v>
+        <v>-3.471673620294524</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>26.70719688474395</v>
+        <v>17.66554057380739</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.70719689462029</v>
+        <v>17.98631744251762</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.70719686070974</v>
+        <v>-2.607133489819624</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.70719689263194</v>
+        <v>26.31706169743272</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.7071969014769</v>
+        <v>25.85280536618325</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.70719690265016</v>
+        <v>30.26173393541643</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.70719691377629</v>
+        <v>35.56225912039672</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.70719691768601</v>
+        <v>36.99118014557506</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.70719687957252</v>
+        <v>10.29338162303663</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.70719690776071</v>
+        <v>26.17368323927899</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.70719691649254</v>
+        <v>29.54370786390231</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.70719689695293</v>
+        <v>13.27977445763335</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>26.70719692669183</v>
+        <v>32.87253616593095</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.70719693700524</v>
+        <v>38.49524817163805</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>26.7071968918699</v>
+        <v>5.29929964586276</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.70719692562407</v>
+        <v>31.61007020208168</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.70719693707059</v>
+        <v>39.44681328398952</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.70719690147915</v>
+        <v>6.34233158274662</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.7071969379064</v>
+        <v>47.65406544436227</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.70719694807623</v>
+        <v>56.76987857705915</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.70719694538714</v>
+        <v>48.89373162002833</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.70719695955724</v>
+        <v>58.09744737679237</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.7071969642745</v>
+        <v>61.90023131446289</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.70719691687227</v>
+        <v>17.07415347386012</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.70719695265711</v>
+        <v>55.37889977806667</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.70719696198998</v>
+        <v>61.56971859139622</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.70719692893534</v>
+        <v>18.94703504436724</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.7071969593129</v>
+        <v>41.49429254570487</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.70719697026188</v>
+        <v>46.79137077867586</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.7071969235801</v>
+        <v>8.746022482596111</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.70719695834093</v>
+        <v>44.00695068926811</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>26.70719697019853</v>
+        <v>49.78039532526614</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.70719693500898</v>
+        <v>13.26997876759284</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>26.70719697227378</v>
+        <v>64.43441961176666</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.70719698295296</v>
+        <v>72.66828861592214</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.70719697814191</v>
+        <v>77.8140371076107</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.70719699199107</v>
+        <v>86.48650679462517</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.70719699598435</v>
+        <v>89.66758213251975</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.70719694828935</v>
+        <v>33.85832797151252</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.70719698348149</v>
+        <v>79.92150633918816</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.70719699351323</v>
+        <v>86.06839973054724</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.70719685216759</v>
+        <v>3.355130290513376</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>26.70719687987947</v>
+        <v>7.088811117646923</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.70719689047123</v>
+        <v>11.20846890301152</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.70719684867848</v>
+        <v>-6.898283302284003</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.70719688180215</v>
+        <v>12.53718899323275</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.70719689292087</v>
+        <v>16.25074824300087</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.70719685498399</v>
+        <v>-7.800623503762683</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.70719689034863</v>
+        <v>21.123091270322</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.707196900174</v>
+        <v>21.74600549001599</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.70719690110422</v>
+        <v>21.96893969089677</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.70719691340681</v>
+        <v>26.67413055259401</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>26.7071969179799</v>
+        <v>31.00500598765932</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>26.70719687622885</v>
+        <v>5.580993625356914</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.70719690694485</v>
+        <v>19.20513613367428</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>26.70719691681934</v>
+        <v>22.27870667042217</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.70719689398254</v>
+        <v>0.8746447597769347</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.70719692651166</v>
+        <v>11.24790280014713</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.70719693802231</v>
+        <v>16.97110662025645</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.70719688787732</v>
+        <v>-5.175426420330023</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.70719692476521</v>
+        <v>12.06243007506864</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>26.70719693756749</v>
+        <v>19.28359944093778</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.70719689796534</v>
+        <v>-6.982545488294715</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.70719693789166</v>
+        <v>22.38950303746689</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.70719694920718</v>
+        <v>32.54065666882792</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.70719694610872</v>
+        <v>27.2072147079688</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.70719696189829</v>
+        <v>37.81681414386379</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.7071969675149</v>
+        <v>46.66912673902939</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.7071969154221</v>
+        <v>3.316515771286724</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.70719695437726</v>
+        <v>33.49353453526913</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>26.70719696471568</v>
+        <v>36.50856568549821</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.70719692891433</v>
+        <v>6.180062893174924</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.70719696213884</v>
+        <v>19.97018337865835</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>26.70719697456767</v>
+        <v>29.99125189313113</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.70719692248264</v>
+        <v>-0.9150247186924823</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>26.70719696037176</v>
+        <v>23.49855992828824</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.70719697397329</v>
+        <v>34.43916431089172</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>26.70719693458197</v>
+        <v>-1.397187810414817</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.70719697539343</v>
+        <v>37.95903426929479</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.70719698759249</v>
+        <v>53.26996101458818</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.70719698180329</v>
+        <v>52.60872219957078</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.70719699751792</v>
+        <v>62.950764839247</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.70719700226709</v>
+        <v>75.65201766930507</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.7071969495878</v>
+        <v>14.41354580564313</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.7071969879812</v>
+        <v>52.28150718517087</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.70719699944564</v>
+        <v>58.04280041327395</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.7071968745964</v>
+        <v>16.29190607505122</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.70719690147984</v>
+        <v>33.72075320780712</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.70719691144004</v>
+        <v>41.56985794330465</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.70719687263337</v>
+        <v>7.992411369254405</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.70719690520782</v>
+        <v>50.41473411350393</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.70719691537945</v>
+        <v>52.59474952919069</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.70719687985617</v>
+        <v>14.82883621710441</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.70719691422387</v>
+        <v>71.29495411593804</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.70719692332156</v>
+        <v>71.57455753720986</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.70719692246514</v>
+        <v>65.01526047734444</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.70719693395786</v>
+        <v>71.5647670760299</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.70719693786841</v>
+        <v>73.16720039419248</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.70719689748965</v>
+        <v>35.39848578569034</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.70719692738369</v>
+        <v>62.47968467064563</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.70719693673027</v>
+        <v>73.72218292946759</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.70719691077467</v>
+        <v>14.02348206559787</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>26.70719694230282</v>
+        <v>38.09426411069072</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.70719695292869</v>
+        <v>42.01854946128287</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.70719690612928</v>
+        <v>1.181618070090774</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.70719694225316</v>
+        <v>37.37375169809527</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.70719695389393</v>
+        <v>41.49939217602589</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.70719691698653</v>
+        <v>5.418828573758471</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.70719695572513</v>
+        <v>60.62807873523255</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.70719696603516</v>
+        <v>65.52546842231759</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.70719696185474</v>
+        <v>56.91715343350648</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.70719697655258</v>
+        <v>64.75213781435288</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.70719698127419</v>
+        <v>67.8678511463757</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.70719693157772</v>
+        <v>24.0150338405257</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.70719696914931</v>
+        <v>67.24461090128145</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.70719697889932</v>
+        <v>70.84752138405524</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.7071969421388</v>
+        <v>18.53057324353129</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.70719697426187</v>
+        <v>45.11236137257016</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>26.70719698565254</v>
+        <v>50.86858279788557</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.70719693722887</v>
+        <v>6.057656320882053</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.70719697426204</v>
+        <v>49.20683416519351</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.70719698648734</v>
+        <v>53.65390102551615</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.7071969498738</v>
+        <v>10.66620653124286</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>26.70719698936765</v>
+        <v>75.47464809693028</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.70719700036116</v>
+        <v>82.1332394378195</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.70719699402509</v>
+        <v>83.06096125658007</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.70719700836872</v>
+        <v>91.49508965486008</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.70719701239229</v>
+        <v>92.90360266355228</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.70719696228266</v>
+        <v>34.21485145642175</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.70719699932113</v>
+        <v>86.76002647357255</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.70719700990292</v>
+        <v>92.18315728449855</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.70719685027613</v>
+        <v>5.505550575292748</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.707196875315</v>
+        <v>10.10978961385625</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.70719688466649</v>
+        <v>14.0117590437162</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.70719684645506</v>
+        <v>-3.076236788678091</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.70719687617661</v>
+        <v>12.72011519937837</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.70719688597369</v>
+        <v>15.12617668259717</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.70719685193627</v>
+        <v>-1.440329884632185</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.70719688363682</v>
+        <v>22.67313123018815</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.70719689243173</v>
+        <v>23.66978667785086</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.70719689386498</v>
+        <v>23.75388827282266</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.70719690468493</v>
+        <v>28.05053254795211</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.70719690866553</v>
+        <v>31.96615319193818</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.70719687083723</v>
+        <v>5.106762572102873</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>26.70719689910349</v>
+        <v>21.96863474739909</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.70719690786296</v>
+        <v>24.7237171300948</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.70719688796353</v>
+        <v>7.218824117862301</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.70719691754142</v>
+        <v>22.86115327805818</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.70719692784385</v>
+        <v>30.32973210640286</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.70719688206695</v>
+        <v>2.64639687101646</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.70719691547362</v>
+        <v>21.74581984183615</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.70719692687602</v>
+        <v>30.72497010770763</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.70719689118355</v>
+        <v>3.800481417571337</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.70719692726769</v>
+        <v>35.08131688676977</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.70719693748903</v>
+        <v>45.9929714469184</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.70719693506354</v>
+        <v>34.16567758095711</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.70719694889936</v>
+        <v>44.04349657399649</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.70719695380505</v>
+        <v>49.1407967595396</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.7071969067895</v>
+        <v>7.778155659032141</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.70719694229068</v>
+        <v>40.00297984126846</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.70719695184654</v>
+        <v>47.45151696877285</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.70719692085116</v>
+        <v>16.74959513433409</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.70719695115827</v>
+        <v>35.12742697398352</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.70719696213267</v>
+        <v>42.24236471647718</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.70719691470583</v>
+        <v>9.002051095065607</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.70719694914091</v>
+        <v>36.04063615640437</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.70719696109913</v>
+        <v>43.73211283653885</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.70719692570268</v>
+        <v>13.54335724231229</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.7071969626898</v>
+        <v>53.54928100267383</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.70719697346231</v>
+        <v>64.48946038002079</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.70719696886399</v>
+        <v>62.23117556536138</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.70719698244909</v>
+        <v>70.69669102729203</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.70719698662247</v>
+        <v>81.07037303210919</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.7071969390971</v>
+        <v>26.53917990300194</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.70719697419</v>
+        <v>64.74339987047196</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.70719698443799</v>
+        <v>73.70775926691208</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.70719685582158</v>
+        <v>-3.011984408883798</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.7071968826099</v>
+        <v>6.185115561494943</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.70719689220157</v>
+        <v>8.784733215418115</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.70719685172089</v>
+        <v>-14.01396064671062</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.70719688378668</v>
+        <v>9.551253694642465</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.70719689384608</v>
+        <v>11.30198195783694</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.70719685800785</v>
+        <v>-14.96045667968072</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.70719689205964</v>
+        <v>23.75059367966753</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.70719690095263</v>
+        <v>22.49278680814719</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.70719690146958</v>
+        <v>20.34440373207217</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.70719691281398</v>
+        <v>24.98971002637443</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.70719691684026</v>
+        <v>27.09878838355711</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.70719687678847</v>
+        <v>-2.028540112019073</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.70719690679493</v>
+        <v>17.9351215732586</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.70719691599746</v>
+        <v>19.69298866365208</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>26.70719689787985</v>
+        <v>17.49888444926605</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.70719692943414</v>
+        <v>37.15470621511125</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.70719693988518</v>
+        <v>40.67602243383472</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>26.70719689169868</v>
+        <v>6.212524550283081</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.70719692766826</v>
+        <v>34.70658159699255</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.7071969393558</v>
+        <v>40.33860347462696</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.70719690203382</v>
+        <v>7.780720840484424</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.70719694074022</v>
+        <v>53.02180985827495</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.70719695103674</v>
+        <v>59.83913784589738</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.70719694771856</v>
+        <v>54.46915641017506</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.70719696221991</v>
+        <v>62.74367891821547</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.70719696710951</v>
+        <v>65.01532529879917</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.70719691737448</v>
+        <v>21.63028634034118</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.70719695512584</v>
+        <v>61.12012175774434</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.70719696502217</v>
+        <v>65.00070631060308</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.70719693180341</v>
+        <v>22.4121411807051</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>26.70719696409495</v>
+        <v>46.97488441579884</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.7071969752314</v>
+        <v>51.05577348004239</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.70719692513094</v>
+        <v>7.522904443642229</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>26.70719696213117</v>
+        <v>46.54974930137063</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.70719697431945</v>
+        <v>51.15420347129988</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.70719693749834</v>
+        <v>10.02323494560892</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>26.70719697711807</v>
+        <v>67.65158758117195</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>26.70719698800954</v>
+        <v>74.85614763319293</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.70719698241591</v>
+        <v>78.75518810535746</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.70719699665345</v>
+        <v>87.53791947222005</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.70719700078327</v>
+        <v>91.59585321353106</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.70719695046791</v>
+        <v>31.66965062500377</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.70719698783194</v>
+        <v>81.40585195165428</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.70719699844018</v>
+        <v>84.45170660293934</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.70719684814272</v>
+        <v>8.816213491672936</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>26.70719687441441</v>
+        <v>12.64009575541695</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.70719688413816</v>
+        <v>16.94599766097518</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.70719684414675</v>
+        <v>-3.216104493345693</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.70719687552498</v>
+        <v>14.64184428999431</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.70719688570044</v>
+        <v>17.5397195336475</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.70719685003603</v>
+        <v>-0.3722531425215863</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.70719688348376</v>
+        <v>26.37956847456263</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.70719689253299</v>
+        <v>28.34463027086203</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.70719689389972</v>
+        <v>27.20885764532264</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.70719690526145</v>
+        <v>30.94568465814968</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.70719690940297</v>
+        <v>33.79889838676761</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.70719687005539</v>
+        <v>12.51286204984081</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.70719689965115</v>
+        <v>25.50784274624986</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>26.70719690884452</v>
+        <v>28.73376403445867</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.70719688542116</v>
+        <v>3.383597971453089</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>26.70719691626415</v>
+        <v>13.01634344345658</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.70719692698711</v>
+        <v>20.11567390524973</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.70719687899683</v>
+        <v>-3.559876996475239</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>26.70719691404501</v>
+        <v>11.45460237404055</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.70719692589489</v>
+        <v>20.8387144228525</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.70719688856119</v>
+        <v>-3.76864216312833</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.70719692638368</v>
+        <v>23.23720413643788</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.70719693696426</v>
+        <v>35.38107886939765</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.70719693457242</v>
+        <v>26.48981903754257</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.70719694903968</v>
+        <v>31.40194076624904</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.70719695406916</v>
+        <v>35.5069754868814</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.70719690537063</v>
+        <v>4.300511208599307</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.70719694242279</v>
+        <v>29.99256096005067</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.70719695245658</v>
+        <v>35.47773122146706</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>26.70719692226751</v>
+        <v>16.89535596369551</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.70719695398031</v>
+        <v>31.86667979431846</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.70719696528073</v>
+        <v>37.54116982620374</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.70719691555106</v>
+        <v>2.65596711155845</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.70719695179282</v>
+        <v>28.35679482092841</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.70719696406206</v>
+        <v>35.03963342212502</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>26.70719692740832</v>
+        <v>8.590835335094656</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.70719696635511</v>
+        <v>48.71487276008038</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.70719697737923</v>
+        <v>59.18973814093238</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.70719697272609</v>
+        <v>58.84800403320589</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.70719698685438</v>
+        <v>64.98248152046169</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.70719699106712</v>
+        <v>68.32590941040094</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.70719694172753</v>
+        <v>24.53735370624118</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.70719697849779</v>
+        <v>59.4728919837026</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.70719698913598</v>
+        <v>63.65840034840564</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.70719684438317</v>
+        <v>2.109622684408404</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.70719686921308</v>
+        <v>2.853157876811419</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.7071968783224</v>
+        <v>3.809074708604168</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.70719683986016</v>
+        <v>-6.209951796297933</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.70719686949476</v>
+        <v>4.774577950790654</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.70719687908085</v>
+        <v>5.512481212392224</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.70719684490653</v>
+        <v>-7.136107302857898</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.7071968764883</v>
+        <v>10.91051834845124</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>26.70719688496554</v>
+        <v>10.01299580569586</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.70719688686989</v>
+        <v>10.22357932218778</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.70719689753682</v>
+        <v>10.63871211363679</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.70719690142877</v>
+        <v>13.67680929789308</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.7071968645894</v>
+        <v>2.135901179641348</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>26.70719689249143</v>
+        <v>10.24617397161699</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.7071969011735</v>
+        <v>10.72210240327505</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.70719688055645</v>
+        <v>-0.4337432110099435</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.70719690974541</v>
+        <v>5.508486361135546</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.70719691976217</v>
+        <v>7.550357004772863</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.70719687379743</v>
+        <v>-5.197451557564289</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>26.70719690696632</v>
+        <v>4.845378114654885</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26.70719691811977</v>
+        <v>9.196061767924771</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.70719688238668</v>
+        <v>-8.080592744019352</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>26.7071969181767</v>
+        <v>10.66294645743467</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.70719692805663</v>
+        <v>16.81722428192254</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.70719692638749</v>
+        <v>11.24004552458177</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.70719693996037</v>
+        <v>14.37320205701474</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.70719694471702</v>
+        <v>15.81561922692767</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>26.70719689892869</v>
+        <v>-2.970848266957628</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.70719693392108</v>
+        <v>15.74887277602674</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.70719694335752</v>
+        <v>17.48823838667298</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.70719691660526</v>
+        <v>15.50647487798451</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.70719694658756</v>
+        <v>26.27381442685952</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.70719695722947</v>
+        <v>28.24101818059727</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.70719690945402</v>
+        <v>2.010899776706051</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.70719694372351</v>
+        <v>22.26282623549788</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.70719695538352</v>
+        <v>26.47343655273007</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.70719692031825</v>
+        <v>4.89968116793392</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.70719695715553</v>
+        <v>36.12224094467064</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.70719696755903</v>
+        <v>41.98822063633569</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.70719696357846</v>
+        <v>44.39165668045931</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.70719697690783</v>
+        <v>47.48411527690651</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.70719698091044</v>
+        <v>50.26967533610959</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.7071969344231</v>
+        <v>18.82622492967521</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.70719696911688</v>
+        <v>45.39867804530439</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.70719697927692</v>
+        <v>47.85522327932191</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.70719685594367</v>
+        <v>21.49789899378949</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.70719688403391</v>
+        <v>29.8040055003053</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.7071968948272</v>
+        <v>34.6518013843216</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.70719685227614</v>
+        <v>5.85825606464557</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.70719688574623</v>
+        <v>30.86629038921225</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.70719689704039</v>
+        <v>33.89573106172031</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.70719685925576</v>
+        <v>11.17832471489522</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.70719689513288</v>
+        <v>46.44248358501405</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>26.7071969051587</v>
+        <v>47.51358986512584</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>26.70719690593916</v>
+        <v>48.30646552644214</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.70719691830021</v>
+        <v>51.35878458551657</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>26.70719692296064</v>
+        <v>54.85566774582742</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.70719688071201</v>
+        <v>30.2410569833891</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.70719691205058</v>
+        <v>50.94961890813858</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.70719692200586</v>
+        <v>57.38875461654928</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.70719689674792</v>
+        <v>12.39053253279203</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.70719692972143</v>
+        <v>28.4412283351009</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.70719694142671</v>
+        <v>32.86390953697231</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.70719689029821</v>
+        <v>-0.7418013078661012</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.70719692754642</v>
+        <v>20.77437241956922</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.70719694055716</v>
+        <v>26.70092707548421</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.70719690094321</v>
+        <v>1.728213966999942</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.70719694140251</v>
+        <v>38.09958033467635</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.70719695291473</v>
+        <v>46.22574631024342</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.70719694966023</v>
+        <v>40.69271240924291</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.70719696547418</v>
+        <v>46.8514090663072</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.70719697106371</v>
+        <v>51.11200373133012</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.70719691856992</v>
+        <v>16.98573499498317</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.70719695814661</v>
+        <v>51.33361435287537</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.70719696862477</v>
+        <v>55.68474251886044</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.70719693248162</v>
+        <v>23.51799033836677</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.70719696618083</v>
+        <v>42.92090525483647</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.70719697872635</v>
+        <v>48.30723032815145</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.70719692568208</v>
+        <v>8.016144806466354</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.70719696401991</v>
+        <v>38.21628210284567</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.70719697768454</v>
+        <v>43.91085855900043</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.70719693836215</v>
+        <v>13.4538270151197</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.70719697976019</v>
+        <v>60.08716024724366</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.70719699203319</v>
+        <v>69.7226255273216</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.70719698615633</v>
+        <v>73.68221379955732</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.70719700177964</v>
+        <v>79.2351775419083</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.7071970064871</v>
+        <v>84.36670698680278</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.70719695346219</v>
+        <v>32.4697482620142</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.70719699240627</v>
+        <v>73.85188404509078</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.70719700385093</v>
+        <v>80.52346932920457</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.70719686028744</v>
+        <v>19.40176662176545</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.70719688724127</v>
+        <v>38.49561511504528</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.70719689709734</v>
+        <v>43.16924970767748</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.70719685672767</v>
+        <v>8.56436274273387</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.70719688894961</v>
+        <v>42.80456560345323</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.70719689916613</v>
+        <v>45.90228228321953</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.70719686334326</v>
+        <v>14.39961761618497</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>26.70719689755919</v>
+        <v>62.79058332053741</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.70719690665344</v>
+        <v>64.81488637603141</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.7071969068351</v>
+        <v>63.13104591621054</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.70719691833762</v>
+        <v>67.49101640569685</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.70719692241716</v>
+        <v>70.73052102892223</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.70719688188287</v>
+        <v>25.85580291818115</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.70719691233997</v>
+        <v>59.64224216419547</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.70719692161028</v>
+        <v>68.92173601770658</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>26.70719689663626</v>
+        <v>13.82243585029114</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.70719692814652</v>
+        <v>36.35553746458342</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.70719693888599</v>
+        <v>41.61017822048417</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>26.70719689075895</v>
+        <v>4.677279409363837</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.70719692658245</v>
+        <v>33.73844995750216</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.70719693841401</v>
+        <v>40.86941710566785</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.7071969010013</v>
+        <v>5.896921645194528</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.70719693958108</v>
+        <v>51.52790444669621</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>26.70719695008354</v>
+        <v>61.4603219344105</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.70719694668611</v>
+        <v>53.02724413554277</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>26.70719696127034</v>
+        <v>61.83617145854021</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>26.70719696627938</v>
+        <v>63.46658591797528</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.7071969164581</v>
+        <v>15.69795450587446</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>26.70719695429503</v>
+        <v>58.91833829768235</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.70719696428101</v>
+        <v>67.70402096238641</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>26.70719693075472</v>
+        <v>16.34565118891061</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.70719696300972</v>
+        <v>42.82350809341049</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.70719697444239</v>
+        <v>48.95494734706452</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.70719692453356</v>
+        <v>5.841954046447601</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>26.70719696137438</v>
+        <v>43.80676336989633</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>26.70719697379243</v>
+        <v>50.677526851278</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.70719693680898</v>
+        <v>8.272773694078328</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>26.70719697630676</v>
+        <v>64.05533832971263</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.70719698742162</v>
+        <v>75.8468118198662</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.70719698178524</v>
+        <v>75.46023348469606</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>26.70719699608022</v>
+        <v>85.35270129281616</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.70719700030356</v>
+        <v>92.15515665022086</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.70719694990505</v>
+        <v>25.12439142854755</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.70719698735839</v>
+        <v>76.523768264259</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.70719699809023</v>
+        <v>88.37474473660694</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.70719686305319</v>
+        <v>18.09035191139044</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.707196892465</v>
+        <v>32.22913561875021</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.70719690366187</v>
+        <v>38.17040615728394</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.70719686023527</v>
+        <v>7.133165365565024</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.70719689547418</v>
+        <v>43.14797192866808</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.70719690713521</v>
+        <v>46.04872502507609</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.70719686772345</v>
+        <v>12.27567664849115</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>26.70719690529046</v>
+        <v>60.64848044048112</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.70719691558763</v>
+        <v>61.5289942767437</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.70719691534295</v>
+        <v>56.99193090232086</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>26.70719692821103</v>
+        <v>60.91827629550478</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>26.7071969329016</v>
+        <v>64.83812455763686</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>26.7071968886619</v>
+        <v>28.94582149333464</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.70719692121949</v>
+        <v>55.38996505687282</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>26.70719693165173</v>
+        <v>65.98323547003024</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.70719690610703</v>
+        <v>16.65342112526645</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.7071969406059</v>
+        <v>40.19982219636068</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.70719695267122</v>
+        <v>44.33675510955867</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.70719690033333</v>
+        <v>4.348614561578582</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.70719693942722</v>
+        <v>37.50160312283607</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.70719695285482</v>
+        <v>42.78362051517635</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.70719691174333</v>
+        <v>7.851828561017054</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.7071969540753</v>
+        <v>58.03529888930747</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.70719696585214</v>
+        <v>65.95724859951815</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.70719696153836</v>
+        <v>58.49045986333024</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.7071969780204</v>
+        <v>67.80612959237168</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.70719698368043</v>
+        <v>73.3581009044867</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.707196928727</v>
+        <v>23.06334458555807</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.70719696992292</v>
+        <v>68.24262538750197</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.70719698077865</v>
+        <v>75.07451342738136</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.70719694097483</v>
+        <v>19.86506296998421</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.70719697617305</v>
+        <v>46.02286468208136</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.70719698908447</v>
+        <v>50.91788338885486</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.70719693481089</v>
+        <v>7.182834865792501</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.70719697493939</v>
+        <v>47.04063871520028</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.70719698903901</v>
+        <v>52.69694012937332</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>26.70719694816485</v>
+        <v>10.81210239379094</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>26.70719699136163</v>
+        <v>70.1602379882419</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>26.70719700395144</v>
+        <v>79.48243219088307</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.70719699706757</v>
+        <v>82.80676168105254</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>26.7071970133111</v>
+        <v>90.97800321083831</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26.70719701808627</v>
+        <v>97.44218499693315</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>26.70719696269384</v>
+        <v>31.17831889050465</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.7071970032295</v>
+        <v>84.82722660969354</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.70719701512423</v>
+        <v>92.04399006990778</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.70719686236935</v>
+        <v>23.77432502993581</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.70719689007646</v>
+        <v>33.89790686792802</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.70719690076956</v>
+        <v>38.12790461485697</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.70719685989145</v>
+        <v>21.42625450924996</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.70719689301298</v>
+        <v>53.73710118985913</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.70719690415608</v>
+        <v>55.91367229142436</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.70719686649667</v>
+        <v>20.20748109092107</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>26.70719690196889</v>
+        <v>61.17958050066568</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.7071969118338</v>
+        <v>61.3680475904678</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.70719691204024</v>
+        <v>58.83820476740938</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.70719692435315</v>
+        <v>63.29503719902267</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.70719692892753</v>
+        <v>66.63262303060735</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.70719688724744</v>
+        <v>38.24871515855722</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>26.70719691781992</v>
+        <v>56.48684744840328</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.70719692779961</v>
+        <v>65.78454947865944</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.70719690488384</v>
+        <v>21.75820490863373</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.70719693733954</v>
+        <v>40.82029864642719</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.70719694895201</v>
+        <v>44.85883761938771</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.70719689990139</v>
+        <v>24.77455641203661</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.70719693659567</v>
+        <v>52.34416021813529</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>26.70719694948333</v>
+        <v>57.97714200582453</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.70719690999428</v>
+        <v>15.62258091030776</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.70719694992133</v>
+        <v>58.43247102489482</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.70719696128005</v>
+        <v>66.82906253883253</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.70719695737584</v>
+        <v>58.76498504416702</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.7071969731112</v>
+        <v>68.75519503995511</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.70719697867876</v>
+        <v>74.04294253664439</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.70719692667785</v>
+        <v>31.26550670176998</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.707196965488</v>
+        <v>67.63075359190449</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.70719697586181</v>
+        <v>74.74545218616514</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.70719693852252</v>
+        <v>24.69421312695474</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>26.7071969716636</v>
+        <v>46.09275026201923</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>26.70719698407761</v>
+        <v>50.08188416561229</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.70719693305242</v>
+        <v>27.93120627046804</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>26.70719697071858</v>
+        <v>62.06901863234722</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>26.70719698426458</v>
+        <v>66.82224909498969</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.70719694506206</v>
+        <v>19.65820570104263</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>26.70719698584125</v>
+        <v>70.97466783094256</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>26.70719699797208</v>
+        <v>80.58443438545189</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.70719699155775</v>
+        <v>83.36395264379387</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>26.70719700711644</v>
+        <v>91.77853453990431</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.70719701178235</v>
+        <v>99.26614530087711</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>26.70719695937132</v>
+        <v>40.3390520259199</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.70719699752903</v>
+        <v>84.14220683607287</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.70719700892944</v>
+        <v>91.97340012865865</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>26.70719685823488</v>
+        <v>16.11713278288022</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.70719688709479</v>
+        <v>33.34355073863964</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.70719689761311</v>
+        <v>39.90490914850786</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.70719685464565</v>
+        <v>5.286970992633485</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.7071968889918</v>
+        <v>38.12201091566064</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.7071968999741</v>
+        <v>42.13866044783167</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.70719686191826</v>
+        <v>10.35613032874175</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.70719689851811</v>
+        <v>59.06761309908846</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>26.70719690830496</v>
+        <v>61.67442423500812</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>26.70719690846309</v>
+        <v>61.50376079059593</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.70719692070118</v>
+        <v>66.29664840311754</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>26.70719692513065</v>
+        <v>68.38788644492328</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>26.70719688160007</v>
+        <v>20.46266564441105</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.70719691407594</v>
+        <v>55.57447458734172</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.70719692402712</v>
+        <v>63.71286052601411</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>26.70719689780429</v>
+        <v>12.08657676234561</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.70719693160781</v>
+        <v>35.67128040371139</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.70719694293185</v>
+        <v>39.89085236274179</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.70719689176893</v>
+        <v>2.572977141496221</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.70719693005269</v>
+        <v>33.18383012315252</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.70719694256055</v>
+        <v>38.40592410593374</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.70719690287613</v>
+        <v>3.908713678842265</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>26.70719694418437</v>
+        <v>51.71464367937635</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.70719695536149</v>
+        <v>59.34609628210451</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.70719695168112</v>
+        <v>53.69250535406182</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>26.70719696728964</v>
+        <v>62.24284724221364</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.70719697273455</v>
+        <v>63.29117833766644</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.707196919118</v>
+        <v>12.54974643153414</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.70719695951307</v>
+        <v>58.04820197936557</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.70719697019116</v>
+        <v>65.18311412639626</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.70719693307822</v>
+        <v>15.0205054694902</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.70719696760512</v>
+        <v>41.30258836749454</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.70719697976483</v>
+        <v>47.47357547712906</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>26.70719692670497</v>
+        <v>5.134366766697962</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.70719696601851</v>
+        <v>42.70788688924746</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.70719697924589</v>
+        <v>48.53236188063738</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>26.70719693981368</v>
+        <v>6.414161717240166</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.70719698201181</v>
+        <v>63.15515560632889</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.70719699393499</v>
+        <v>73.38241668889636</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.70719698783355</v>
+        <v>78.50605031283214</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>26.70719700320697</v>
+        <v>86.98872406931785</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.70719700778206</v>
+        <v>92.1080463124176</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.70719695361205</v>
+        <v>24.01243760940525</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.70719699355041</v>
+        <v>76.6951899035729</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.70719700504447</v>
+        <v>87.08171227026627</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.70719685527787</v>
+        <v>11.79525745941546</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.70719688099395</v>
+        <v>16.55874153434975</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.70719689066547</v>
+        <v>19.74290892638493</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.70719685198979</v>
+        <v>-1.001459271706512</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.70719688252274</v>
+        <v>21.40037767602726</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.70719689272562</v>
+        <v>22.29928174734667</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>26.70719685802963</v>
+        <v>2.595878049392088</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.70719689074022</v>
+        <v>30.37401206088147</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.70719689983651</v>
+        <v>33.01751441428205</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.70719690100953</v>
+        <v>32.9408562062825</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.70719691230817</v>
+        <v>36.02289394200245</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.70719691668268</v>
+        <v>39.60512609837055</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.70719687783677</v>
+        <v>14.2665280891312</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.70719690654487</v>
+        <v>29.29886518783344</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.70719691557448</v>
+        <v>32.32632409163321</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.70719689491191</v>
+        <v>12.30701538411659</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.70719692523846</v>
+        <v>30.44575482964179</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.70719693588573</v>
+        <v>36.89788621555204</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.70719688931386</v>
+        <v>5.55977792512855</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.70719692353656</v>
+        <v>30.81827746898997</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.70719693544174</v>
+        <v>38.26823034198057</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.7071968988942</v>
+        <v>7.339288532877113</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.70719693600562</v>
+        <v>43.91226289108106</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.70719694655464</v>
+        <v>56.67475461704464</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.70719694377522</v>
+        <v>47.06005886279306</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.70719695827349</v>
+        <v>54.84943952251199</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.70719696345941</v>
+        <v>61.61899450536649</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.70719691501392</v>
+        <v>14.99032255074329</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.70719695144582</v>
+        <v>51.89495199387447</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.70719696105923</v>
+        <v>60.33686102484387</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.70719692757741</v>
+        <v>20.17254084128723</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.70719695858617</v>
+        <v>39.42488697824577</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.70719696995139</v>
+        <v>46.20532499798607</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.70719692152951</v>
+        <v>10.34183049256646</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>26.70719695677631</v>
+        <v>42.54655954677504</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>26.70719696922086</v>
+        <v>48.7881368977513</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.70719693293056</v>
+        <v>14.28199266415986</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>26.70719697088022</v>
+        <v>57.37439783145746</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>26.7071969820932</v>
+        <v>71.00394988731176</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>26.70719697687638</v>
+        <v>70.48634968725636</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>26.70719699121997</v>
+        <v>75.65770808905209</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.7071969955827</v>
+        <v>85.0707125286015</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.70719694673367</v>
+        <v>27.56224145975048</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.70719698253787</v>
+        <v>70.00729092406408</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.70719699302398</v>
+        <v>78.83437209674157</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>26.70719686006857</v>
+        <v>10.38950582261408</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>26.70719688760894</v>
+        <v>17.21730792032799</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.70719689826144</v>
+        <v>22.39886549927764</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.70719685745129</v>
+        <v>1.195385766704614</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.707196890315</v>
+        <v>27.21898442839545</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.70719690145846</v>
+        <v>31.50002936284238</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.70719686399612</v>
+        <v>3.15535315581689</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>26.70719689922342</v>
+        <v>37.80507515794983</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>26.70719690907505</v>
+        <v>40.17008825476987</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.70719690957538</v>
+        <v>40.24725972217316</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.70719692185815</v>
+        <v>44.79253911614673</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.70719692644277</v>
+        <v>49.31668639410882</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.70719688493973</v>
+        <v>19.79410505506034</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.70719691543066</v>
+        <v>36.76090180670235</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.70719692532886</v>
+        <v>46.42656792657714</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.70719690215945</v>
+        <v>9.580460267243179</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.70719693443899</v>
+        <v>26.37034583027212</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.70719694606643</v>
+        <v>33.3730133717065</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.70719689702214</v>
+        <v>5.834765737303272</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>26.70719693348384</v>
+        <v>28.78504537267275</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>26.70719694642637</v>
+        <v>38.96021132402723</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.70719690706527</v>
+        <v>1.933889459750592</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.70719694674045</v>
+        <v>39.58392904329638</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.70719695813258</v>
+        <v>52.11107510821493</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>26.70719695447577</v>
+        <v>43.63052122102299</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.70719697017493</v>
+        <v>53.70000706933973</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>26.70719697577193</v>
+        <v>61.39717389757791</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.70719692395874</v>
+        <v>15.07224623173362</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.70719696265312</v>
+        <v>50.18517293227116</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.70719697300083</v>
+        <v>60.06089803128563</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.70719693583723</v>
+        <v>12.50548608088072</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.7071969688074</v>
+        <v>31.0618829668125</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.70719698123069</v>
+        <v>37.90686441848801</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.70719693020692</v>
+        <v>7.274580086647273</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.70719696765179</v>
+        <v>36.32962607693631</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.70719698123886</v>
+        <v>45.3238857918132</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>26.70719694216694</v>
+        <v>4.324028284568076</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.70719698270445</v>
+        <v>49.79300081512588</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>26.7071969948508</v>
+        <v>63.57799864592086</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>26.7071969886856</v>
+        <v>65.96631626983816</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.7071970042085</v>
+        <v>73.5961616902846</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>26.70719700889087</v>
+        <v>83.77130519767614</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>26.70719695667796</v>
+        <v>22.657483894314</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.70719699471283</v>
+        <v>63.99532827130854</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>26.70719700607611</v>
+        <v>75.03496265949973</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>26.70719686935391</v>
+        <v>21.41903283988304</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.70719689592579</v>
+        <v>34.19024822784385</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.70719690584118</v>
+        <v>40.23114232875039</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>26.70719686678087</v>
+        <v>8.496106902194089</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>26.70719689880936</v>
+        <v>48.70474866837782</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.70719690904099</v>
+        <v>49.7510881435208</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.707196873636</v>
+        <v>16.60528428908402</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>26.70719690758506</v>
+        <v>64.32276880661009</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>26.70719691676071</v>
+        <v>64.73593229306931</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>26.70719691658197</v>
+        <v>59.09003122954055</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>26.70719692806088</v>
+        <v>65.03933496387465</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>26.70719693216208</v>
+        <v>67.34137757725973</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>26.70719689235422</v>
+        <v>39.71288971106996</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>26.70719692179435</v>
+        <v>58.21654501277666</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.7071969311856</v>
+        <v>70.40645506138394</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>26.70719690716666</v>
+        <v>20.9396254025808</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.70719693829656</v>
+        <v>41.45690937125787</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.70719694901969</v>
+        <v>44.77361176613631</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.70719690189582</v>
+        <v>6.77310018324653</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>26.70719693746741</v>
+        <v>40.04826944777133</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.7071969492346</v>
+        <v>43.2072205571822</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>26.70719691233655</v>
+        <v>9.704499369353332</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.70719695060601</v>
+        <v>58.74799218692546</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>26.7071969611307</v>
+        <v>64.48383792901433</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.70719695732518</v>
+        <v>57.92978995286616</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>26.70719697199604</v>
+        <v>64.05749082361474</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.70719697694723</v>
+        <v>67.28804970121421</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.70719692753377</v>
+        <v>29.74772621406611</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.7071969647457</v>
+        <v>66.19917986194048</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>26.70719697460086</v>
+        <v>70.44854282533737</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.70719693911994</v>
+        <v>22.17559035177607</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.70719697092974</v>
+        <v>44.56441019562158</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.70719698237177</v>
+        <v>48.86114232455611</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.70719693353114</v>
+        <v>8.092934736528559</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.70719697004708</v>
+        <v>47.57698206574416</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.70719698240965</v>
+        <v>51.32520020087253</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>26.70719694577837</v>
+        <v>12.55422953261651</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>26.70719698487131</v>
+        <v>69.36809729546052</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>26.70719699604204</v>
+        <v>77.32482759356401</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>26.70719698997923</v>
+        <v>80.50000679477229</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>26.70719700440578</v>
+        <v>86.92633214099733</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>26.70719700859329</v>
+        <v>90.43127461931265</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>26.70719695881822</v>
+        <v>37.70126095379994</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.70719699544224</v>
+        <v>80.76437762411848</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>26.70719700611812</v>
+        <v>86.55659912386899</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>26.70719685973958</v>
+        <v>16.21621267811835</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>26.70719688838927</v>
+        <v>33.56015595391131</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.70719689882874</v>
+        <v>38.47769737152043</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.70719685647703</v>
+        <v>6.097832887647694</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.70719689059231</v>
+        <v>40.06453749846438</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.70719690146201</v>
+        <v>42.45759824557946</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.70719686365986</v>
+        <v>9.885354454827905</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>26.7071968999698</v>
+        <v>58.18409983731131</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>26.70719690968607</v>
+        <v>59.62968355831805</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.70719690988362</v>
+        <v>60.28676753048114</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.70719692208734</v>
+        <v>66.73512433364658</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>26.70719692644512</v>
+        <v>67.58647132031891</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>26.7071968832442</v>
+        <v>19.08906096735138</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.70719691545371</v>
+        <v>53.96806736889138</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>26.70719692530828</v>
+        <v>60.99510186156503</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>26.70719689933221</v>
+        <v>12.58590445138621</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.70719693284398</v>
+        <v>36.44805651224654</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>26.70719694413883</v>
+        <v>40.59258907550725</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.70719689358616</v>
+        <v>4.09662682548564</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.70719693156786</v>
+        <v>35.00064065154444</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>26.70719694398242</v>
+        <v>40.03980901778154</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.7071969045884</v>
+        <v>5.24601186848728</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>26.70719694552177</v>
+        <v>53.07769523908132</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>26.7071969566803</v>
+        <v>61.45385721783315</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>26.70719695303777</v>
+        <v>55.64301701156541</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>26.70719696864984</v>
+        <v>64.02658379097339</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>26.70719697396749</v>
+        <v>65.35345959049327</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>26.70719692074299</v>
+        <v>13.56423859597917</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>26.70719696091292</v>
+        <v>60.7718968233557</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>26.707196971389</v>
+        <v>67.2397885607852</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>26.70719693372711</v>
+        <v>14.75195865755486</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.70719696793367</v>
+        <v>40.93248522651282</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>26.70719698004499</v>
+        <v>46.80233770540275</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.70719692760256</v>
+        <v>5.101630121150666</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>26.7071969665709</v>
+        <v>42.22555446991032</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.70719697970943</v>
+        <v>47.73185227643887</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>26.70719694051622</v>
+        <v>5.693059750737316</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>26.7071969822899</v>
+        <v>61.68158795141638</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.70719699418729</v>
+        <v>71.95243955021151</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>26.7071969881938</v>
+        <v>76.38783176206005</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>26.70719700353054</v>
+        <v>83.60786542548819</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.70719700802609</v>
+        <v>90.06624928467305</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>26.70719695428744</v>
+        <v>21.59650930166121</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>26.70719699391282</v>
+        <v>73.78891058514684</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>26.7071970052721</v>
+        <v>83.63397419911912</v>
       </c>
     </row>
   </sheetData>
